--- a/recommended_trades.xlsx
+++ b/recommended_trades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="505">
   <si>
     <t>Ticker</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>HSIC</t>
-  </si>
-  <si>
-    <t>HST</t>
   </si>
   <si>
     <t>HSY</t>
@@ -1909,7 +1906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C504"/>
+  <dimension ref="A1:C503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1936,10 +1933,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>116.9400024414062</v>
+        <v>116.6900024414062</v>
       </c>
       <c r="C2" s="6">
-        <v>638</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1947,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="8">
-        <v>218.2299957275391</v>
+        <v>217.8999938964844</v>
       </c>
       <c r="C3" s="9">
-        <v>341</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1958,10 +1955,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="5">
-        <v>205.7400054931641</v>
+        <v>205.2899932861328</v>
       </c>
       <c r="C4" s="6">
-        <v>362</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1969,10 +1966,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="8">
-        <v>120.5449981689453</v>
+        <v>120.6900024414062</v>
       </c>
       <c r="C5" s="9">
-        <v>619</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1980,10 +1977,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>131.3999938964844</v>
+        <v>130.8200073242188</v>
       </c>
       <c r="C6" s="6">
-        <v>567</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1991,10 +1988,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="8">
-        <v>95.09999847412109</v>
+        <v>95.05999755859375</v>
       </c>
       <c r="C7" s="9">
-        <v>784</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2002,10 +1999,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>304.4299926757812</v>
+        <v>304.3299865722656</v>
       </c>
       <c r="C8" s="6">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2013,10 +2010,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="8">
-        <v>386.6199951171875</v>
+        <v>385.7099914550781</v>
       </c>
       <c r="C9" s="9">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2024,10 +2021,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>202.1499938964844</v>
+        <v>201.5599975585938</v>
       </c>
       <c r="C10" s="6">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2035,10 +2032,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="8">
-        <v>47.81000137329102</v>
+        <v>47.86999893188477</v>
       </c>
       <c r="C11" s="9">
-        <v>1560</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2046,10 +2043,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="5">
-        <v>301.25</v>
+        <v>300.8299865722656</v>
       </c>
       <c r="C12" s="6">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2057,10 +2054,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="8">
-        <v>261.8699951171875</v>
+        <v>261.6300048828125</v>
       </c>
       <c r="C13" s="9">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2068,10 +2065,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>99.83499908447266</v>
+        <v>99.69999694824219</v>
       </c>
       <c r="C14" s="6">
-        <v>747</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2079,10 +2076,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="8">
-        <v>107.25</v>
+        <v>106.9599990844727</v>
       </c>
       <c r="C15" s="9">
-        <v>695</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2090,10 +2087,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="5">
-        <v>12.47500038146973</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="C16" s="6">
-        <v>5981</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2101,10 +2098,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="8">
-        <v>109.8399963378906</v>
+        <v>109.8000030517578</v>
       </c>
       <c r="C17" s="9">
-        <v>679</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2112,10 +2109,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="5">
-        <v>83.34999847412109</v>
+        <v>83.62000274658203</v>
       </c>
       <c r="C18" s="6">
-        <v>895</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2123,10 +2120,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="8">
-        <v>205.3600006103516</v>
+        <v>206.3099975585938</v>
       </c>
       <c r="C19" s="9">
-        <v>363</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2134,10 +2131,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="5">
-        <v>341.9100036621094</v>
+        <v>340.760009765625</v>
       </c>
       <c r="C20" s="6">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2145,10 +2142,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="8">
-        <v>80.04000091552734</v>
+        <v>80.05000305175781</v>
       </c>
       <c r="C21" s="9">
-        <v>932</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2156,10 +2153,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="5">
-        <v>72</v>
+        <v>72.19000244140625</v>
       </c>
       <c r="C22" s="6">
-        <v>1036</v>
+        <v>938</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2167,10 +2164,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="8">
-        <v>158.6300048828125</v>
+        <v>159.2100067138672</v>
       </c>
       <c r="C23" s="9">
-        <v>470</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2178,10 +2175,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="5">
-        <v>205.3099975585938</v>
+        <v>206.4499969482422</v>
       </c>
       <c r="C24" s="6">
-        <v>363</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2189,10 +2186,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="8">
-        <v>129.0549926757812</v>
+        <v>128.2899932861328</v>
       </c>
       <c r="C25" s="9">
-        <v>578</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2200,10 +2197,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="5">
-        <v>145.7380065917969</v>
+        <v>145.0599975585938</v>
       </c>
       <c r="C26" s="6">
-        <v>512</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2211,10 +2208,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="8">
-        <v>9.609999656677246</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="C27" s="9">
-        <v>7764</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2222,10 +2219,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="5">
-        <v>103.3199996948242</v>
+        <v>103.2200012207031</v>
       </c>
       <c r="C28" s="6">
-        <v>722</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2233,10 +2230,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="8">
-        <v>170.4900054931641</v>
+        <v>170.3899993896484</v>
       </c>
       <c r="C29" s="9">
-        <v>437</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2244,10 +2241,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="5">
-        <v>307.739990234375</v>
+        <v>306.9500122070312</v>
       </c>
       <c r="C30" s="6">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2255,10 +2252,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="8">
-        <v>481.864990234375</v>
+        <v>482.2200012207031</v>
       </c>
       <c r="C31" s="9">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2266,10 +2263,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="5">
-        <v>215.0899963378906</v>
+        <v>215.5599975585938</v>
       </c>
       <c r="C32" s="6">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2277,10 +2274,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="8">
-        <v>192.4199981689453</v>
+        <v>192.7200012207031</v>
       </c>
       <c r="C33" s="9">
-        <v>387</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2288,10 +2285,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="5">
-        <v>77.76999664306641</v>
+        <v>77.94000244140625</v>
       </c>
       <c r="C34" s="6">
-        <v>959</v>
+        <v>868</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2299,10 +2296,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="8">
-        <v>318.1574096679688</v>
+        <v>316.8900146484375</v>
       </c>
       <c r="C35" s="9">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2310,10 +2307,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="5">
-        <v>394.3550109863281</v>
+        <v>394.5499877929688</v>
       </c>
       <c r="C36" s="6">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2321,10 +2318,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="8">
-        <v>66.02500152587891</v>
+        <v>65.61000061035156</v>
       </c>
       <c r="C37" s="9">
-        <v>1130</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2332,10 +2329,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="5">
-        <v>20.94000053405762</v>
+        <v>20.92000007629395</v>
       </c>
       <c r="C38" s="6">
-        <v>3563</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2343,10 +2340,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="8">
-        <v>293.0199890136719</v>
+        <v>292.2699890136719</v>
       </c>
       <c r="C39" s="9">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2354,10 +2351,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="5">
-        <v>66.76999664306641</v>
+        <v>66.58999633789062</v>
       </c>
       <c r="C40" s="6">
-        <v>1117</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2365,10 +2362,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="8">
-        <v>136.7700042724609</v>
+        <v>136.9600067138672</v>
       </c>
       <c r="C41" s="9">
-        <v>545</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2379,7 +2376,7 @@
         <v>60.59000015258789</v>
       </c>
       <c r="C42" s="6">
-        <v>1231</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2387,10 +2384,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="8">
-        <v>95.67030334472656</v>
+        <v>95.59999847412109</v>
       </c>
       <c r="C43" s="9">
-        <v>779</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2398,10 +2395,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="5">
-        <v>152.6900024414062</v>
+        <v>152.4600067138672</v>
       </c>
       <c r="C44" s="6">
-        <v>488</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2409,10 +2406,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="8">
-        <v>212.9499969482422</v>
+        <v>213.5800018310547</v>
       </c>
       <c r="C45" s="9">
-        <v>350</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2420,10 +2417,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="5">
-        <v>168.6999969482422</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="C46" s="6">
-        <v>442</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2431,10 +2428,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="8">
-        <v>175.8500061035156</v>
+        <v>175.7700042724609</v>
       </c>
       <c r="C47" s="9">
-        <v>424</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2442,10 +2439,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="5">
-        <v>146.8999938964844</v>
+        <v>146.2400054931641</v>
       </c>
       <c r="C48" s="6">
-        <v>507</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2453,10 +2450,10 @@
         <v>50</v>
       </c>
       <c r="B49" s="8">
-        <v>531.02001953125</v>
+        <v>534.9500122070312</v>
       </c>
       <c r="C49" s="9">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2464,10 +2461,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="5">
-        <v>265.239990234375</v>
+        <v>265.4800109863281</v>
       </c>
       <c r="C50" s="6">
-        <v>281</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2475,10 +2472,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="8">
-        <v>3776.425048828125</v>
+        <v>3771</v>
       </c>
       <c r="C51" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2486,10 +2483,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="5">
-        <v>174.0500030517578</v>
+        <v>173.3099975585938</v>
       </c>
       <c r="C52" s="6">
-        <v>428</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2497,10 +2494,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="8">
-        <v>41.13000106811523</v>
+        <v>41.25</v>
       </c>
       <c r="C53" s="9">
-        <v>1814</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2508,10 +2505,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="5">
-        <v>51.38000106811523</v>
+        <v>51.45999908447266</v>
       </c>
       <c r="C54" s="6">
-        <v>1452</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2519,10 +2516,10 @@
         <v>56</v>
       </c>
       <c r="B55" s="8">
-        <v>33.78499984741211</v>
+        <v>33.75</v>
       </c>
       <c r="C55" s="9">
-        <v>2208</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2530,10 +2527,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="5">
-        <v>72.98999786376953</v>
+        <v>72.44999694824219</v>
       </c>
       <c r="C56" s="6">
-        <v>1022</v>
+        <v>934</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2541,10 +2538,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="8">
-        <v>227.3200073242188</v>
+        <v>227.5</v>
       </c>
       <c r="C57" s="9">
-        <v>328</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2552,10 +2549,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="5">
-        <v>19.30500030517578</v>
+        <v>19.28000068664551</v>
       </c>
       <c r="C58" s="6">
-        <v>3865</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2563,10 +2560,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="8">
-        <v>34.3650016784668</v>
+        <v>34.41999816894531</v>
       </c>
       <c r="C59" s="9">
-        <v>2171</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2574,10 +2571,10 @@
         <v>61</v>
       </c>
       <c r="B60" s="5">
-        <v>76.33999633789062</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="C60" s="6">
-        <v>977</v>
+        <v>886</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2585,10 +2582,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="8">
-        <v>139.9725036621094</v>
+        <v>138.3699951171875</v>
       </c>
       <c r="C61" s="9">
-        <v>533</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2596,10 +2593,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="5">
-        <v>82.87999725341797</v>
+        <v>82.70999908447266</v>
       </c>
       <c r="C62" s="6">
-        <v>900</v>
+        <v>818</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2607,10 +2604,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="8">
-        <v>4640.740234375</v>
+        <v>4634.240234375</v>
       </c>
       <c r="C63" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2618,10 +2615,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="5">
-        <v>43.04999923706055</v>
+        <v>43.08000183105469</v>
       </c>
       <c r="C64" s="6">
-        <v>1733</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2629,10 +2626,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="8">
-        <v>124.9199981689453</v>
+        <v>124.5100021362305</v>
       </c>
       <c r="C65" s="9">
-        <v>597</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2640,10 +2637,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="5">
-        <v>949.0399780273438</v>
+        <v>946.7000122070312</v>
       </c>
       <c r="C66" s="6">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2651,10 +2648,10 @@
         <v>68</v>
       </c>
       <c r="B67" s="8">
-        <v>59.56999969482422</v>
+        <v>60.02000045776367</v>
       </c>
       <c r="C67" s="9">
-        <v>1252</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2662,10 +2659,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="5">
-        <v>236.3249969482422</v>
+        <v>237.5099945068359</v>
       </c>
       <c r="C68" s="6">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2673,10 +2670,10 @@
         <v>70</v>
       </c>
       <c r="B69" s="8">
-        <v>526.135009765625</v>
+        <v>526.3099975585938</v>
       </c>
       <c r="C69" s="9">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2684,10 +2681,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="5">
-        <v>122.4899978637695</v>
+        <v>122.9300003051758</v>
       </c>
       <c r="C70" s="6">
-        <v>609</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2695,10 +2692,10 @@
         <v>72</v>
       </c>
       <c r="B71" s="8">
-        <v>99.16999816894531</v>
+        <v>99.36000061035156</v>
       </c>
       <c r="C71" s="9">
-        <v>752</v>
+        <v>681</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2706,10 +2703,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="5">
-        <v>138.6799926757812</v>
+        <v>138.1100006103516</v>
       </c>
       <c r="C72" s="6">
-        <v>538</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2717,10 +2714,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="8">
-        <v>67.42500305175781</v>
+        <v>67.68000030517578</v>
       </c>
       <c r="C73" s="9">
-        <v>1106</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2728,10 +2725,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="5">
-        <v>70.08999633789062</v>
+        <v>70.33000183105469</v>
       </c>
       <c r="C74" s="6">
-        <v>1064</v>
+        <v>963</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2739,10 +2736,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="8">
-        <v>26.55500030517578</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="C75" s="9">
-        <v>2810</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2750,10 +2747,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="5">
-        <v>136.1499938964844</v>
+        <v>136.4400024414062</v>
       </c>
       <c r="C76" s="6">
-        <v>548</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2761,10 +2758,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="8">
-        <v>63.70000076293945</v>
+        <v>63.33000183105469</v>
       </c>
       <c r="C77" s="9">
-        <v>1171</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2772,10 +2769,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="5">
-        <v>329.0799865722656</v>
+        <v>329.6900024414062</v>
       </c>
       <c r="C78" s="6">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2783,10 +2780,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="8">
-        <v>296.8250122070312</v>
+        <v>296.4400024414062</v>
       </c>
       <c r="C79" s="9">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2794,10 +2791,10 @@
         <v>81</v>
       </c>
       <c r="B80" s="5">
-        <v>221.8000030517578</v>
+        <v>222.6799926757812</v>
       </c>
       <c r="C80" s="6">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2805,10 +2802,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="8">
-        <v>129.0650024414062</v>
+        <v>129.4600067138672</v>
       </c>
       <c r="C81" s="9">
-        <v>578</v>
+        <v>523</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2816,10 +2813,10 @@
         <v>83</v>
       </c>
       <c r="B82" s="5">
-        <v>103.4700012207031</v>
+        <v>103.5999984741211</v>
       </c>
       <c r="C82" s="6">
-        <v>721</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2827,10 +2824,10 @@
         <v>84</v>
       </c>
       <c r="B83" s="8">
-        <v>19.85499954223633</v>
+        <v>19.8700008392334</v>
       </c>
       <c r="C83" s="9">
-        <v>3758</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2838,10 +2835,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="5">
-        <v>257.5150146484375</v>
+        <v>256.6900024414062</v>
       </c>
       <c r="C84" s="6">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2849,10 +2846,10 @@
         <v>86</v>
       </c>
       <c r="B85" s="8">
-        <v>162.0099945068359</v>
+        <v>161.5099945068359</v>
       </c>
       <c r="C85" s="9">
-        <v>460</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2860,10 +2857,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="5">
-        <v>205.8000030517578</v>
+        <v>205.3899993896484</v>
       </c>
       <c r="C86" s="6">
-        <v>362</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2871,10 +2868,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="8">
-        <v>77</v>
+        <v>77.38999938964844</v>
       </c>
       <c r="C87" s="9">
-        <v>969</v>
+        <v>875</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2882,10 +2879,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="5">
-        <v>40.14500045776367</v>
+        <v>40.25</v>
       </c>
       <c r="C88" s="6">
-        <v>1858</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2893,10 +2890,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="8">
-        <v>109.0999984741211</v>
+        <v>109.1100006103516</v>
       </c>
       <c r="C89" s="9">
-        <v>683</v>
+        <v>620</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2904,10 +2901,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="5">
-        <v>101.3600006103516</v>
+        <v>101.129997253418</v>
       </c>
       <c r="C90" s="6">
-        <v>736</v>
+        <v>669</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2915,10 +2912,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="8">
-        <v>373.2300109863281</v>
+        <v>369.0199890136719</v>
       </c>
       <c r="C91" s="9">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2926,10 +2923,10 @@
         <v>93</v>
       </c>
       <c r="B92" s="5">
-        <v>325.5799865722656</v>
+        <v>325.0400085449219</v>
       </c>
       <c r="C92" s="6">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2937,10 +2934,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="8">
-        <v>145.8099975585938</v>
+        <v>145.5500030517578</v>
       </c>
       <c r="C93" s="9">
-        <v>511</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2948,10 +2945,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="5">
-        <v>92.79000091552734</v>
+        <v>92.81999969482422</v>
       </c>
       <c r="C94" s="6">
-        <v>804</v>
+        <v>729</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2959,10 +2956,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="8">
-        <v>146.0200042724609</v>
+        <v>146.2799987792969</v>
       </c>
       <c r="C95" s="9">
-        <v>511</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2970,10 +2967,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="5">
-        <v>36.75500106811523</v>
+        <v>36.61999893188477</v>
       </c>
       <c r="C96" s="6">
-        <v>2030</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2981,10 +2978,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="8">
-        <v>262.9100036621094</v>
+        <v>262.2200012207031</v>
       </c>
       <c r="C97" s="9">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2992,10 +2989,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="5">
-        <v>50.09500122070312</v>
+        <v>49.90999984741211</v>
       </c>
       <c r="C98" s="6">
-        <v>1489</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3003,10 +3000,10 @@
         <v>100</v>
       </c>
       <c r="B99" s="8">
-        <v>313.6000061035156</v>
+        <v>314.0199890136719</v>
       </c>
       <c r="C99" s="9">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3014,10 +3011,10 @@
         <v>101</v>
       </c>
       <c r="B100" s="5">
-        <v>74.43000030517578</v>
+        <v>74.18000030517578</v>
       </c>
       <c r="C100" s="6">
-        <v>1002</v>
+        <v>913</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3025,10 +3022,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="8">
-        <v>60.17499923706055</v>
+        <v>60.04000091552734</v>
       </c>
       <c r="C101" s="9">
-        <v>1240</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3036,10 +3033,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="5">
-        <v>36.22499847412109</v>
+        <v>36.25</v>
       </c>
       <c r="C102" s="6">
-        <v>2059</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3047,10 +3044,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="8">
-        <v>173.1799926757812</v>
+        <v>173.5299987792969</v>
       </c>
       <c r="C103" s="9">
-        <v>430</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3058,10 +3055,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="5">
-        <v>83.72000122070312</v>
+        <v>83.76999664306641</v>
       </c>
       <c r="C104" s="6">
-        <v>891</v>
+        <v>808</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3069,10 +3066,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="8">
-        <v>102.2799987792969</v>
+        <v>102.370002746582</v>
       </c>
       <c r="C105" s="9">
-        <v>729</v>
+        <v>661</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3080,10 +3077,10 @@
         <v>107</v>
       </c>
       <c r="B106" s="5">
-        <v>274.2749938964844</v>
+        <v>275.2099914550781</v>
       </c>
       <c r="C106" s="6">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3091,10 +3088,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="8">
-        <v>929.8400268554688</v>
+        <v>929.6599731445312</v>
       </c>
       <c r="C107" s="9">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3102,10 +3099,10 @@
         <v>109</v>
       </c>
       <c r="B108" s="5">
-        <v>347.6700134277344</v>
+        <v>346.6900024414062</v>
       </c>
       <c r="C108" s="6">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3113,10 +3110,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="8">
-        <v>39.70000076293945</v>
+        <v>39.72000122070312</v>
       </c>
       <c r="C109" s="9">
-        <v>1879</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3124,10 +3121,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="5">
-        <v>55.02500152587891</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="C110" s="6">
-        <v>1356</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3135,10 +3132,10 @@
         <v>112</v>
       </c>
       <c r="B111" s="8">
-        <v>121.5699996948242</v>
+        <v>122.3000030517578</v>
       </c>
       <c r="C111" s="9">
-        <v>613</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3146,10 +3143,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="5">
-        <v>156.2100067138672</v>
+        <v>155.5500030517578</v>
       </c>
       <c r="C112" s="6">
-        <v>477</v>
+        <v>435</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3157,10 +3154,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="8">
-        <v>269.8299865722656</v>
+        <v>269.9700012207031</v>
       </c>
       <c r="C113" s="9">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3168,10 +3165,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="5">
-        <v>357.6998901367188</v>
+        <v>357.1099853515625</v>
       </c>
       <c r="C114" s="6">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3179,10 +3176,10 @@
         <v>116</v>
       </c>
       <c r="B115" s="8">
-        <v>60.79750061035156</v>
+        <v>60.86000061035156</v>
       </c>
       <c r="C115" s="9">
-        <v>1227</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3190,10 +3187,10 @@
         <v>117</v>
       </c>
       <c r="B116" s="5">
-        <v>79.13999938964844</v>
+        <v>79.30999755859375</v>
       </c>
       <c r="C116" s="6">
-        <v>942</v>
+        <v>853</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3201,10 +3198,10 @@
         <v>118</v>
       </c>
       <c r="B117" s="8">
-        <v>29.17499923706055</v>
+        <v>29.11000061035156</v>
       </c>
       <c r="C117" s="9">
-        <v>2557</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3212,10 +3209,10 @@
         <v>119</v>
       </c>
       <c r="B118" s="5">
-        <v>203.1150054931641</v>
+        <v>203.2200012207031</v>
       </c>
       <c r="C118" s="6">
-        <v>367</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3223,10 +3220,10 @@
         <v>120</v>
       </c>
       <c r="B119" s="8">
-        <v>28.53000068664551</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="C119" s="9">
-        <v>2615</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3234,10 +3231,10 @@
         <v>121</v>
       </c>
       <c r="B120" s="5">
-        <v>75.89499664306641</v>
+        <v>75.90000152587891</v>
       </c>
       <c r="C120" s="6">
-        <v>983</v>
+        <v>892</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3245,10 +3242,10 @@
         <v>122</v>
       </c>
       <c r="B121" s="8">
-        <v>61.04999923706055</v>
+        <v>61.06000137329102</v>
       </c>
       <c r="C121" s="9">
-        <v>1222</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3256,10 +3253,10 @@
         <v>123</v>
       </c>
       <c r="B122" s="5">
-        <v>66.86000061035156</v>
+        <v>67.13999938964844</v>
       </c>
       <c r="C122" s="6">
-        <v>1116</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3267,10 +3264,10 @@
         <v>124</v>
       </c>
       <c r="B123" s="8">
-        <v>166.3399963378906</v>
+        <v>166.0899963378906</v>
       </c>
       <c r="C123" s="9">
-        <v>448</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3278,10 +3275,10 @@
         <v>125</v>
       </c>
       <c r="B124" s="5">
-        <v>25.66189956665039</v>
+        <v>25.67000007629395</v>
       </c>
       <c r="C124" s="6">
-        <v>2907</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3289,10 +3286,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="8">
-        <v>55.28499984741211</v>
+        <v>54.9900016784668</v>
       </c>
       <c r="C125" s="9">
-        <v>1349</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3300,10 +3297,10 @@
         <v>127</v>
       </c>
       <c r="B126" s="5">
-        <v>43.91500091552734</v>
+        <v>43.84000015258789</v>
       </c>
       <c r="C126" s="6">
-        <v>1699</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3311,10 +3308,10 @@
         <v>128</v>
       </c>
       <c r="B127" s="8">
-        <v>183.0650024414062</v>
+        <v>182.6100006103516</v>
       </c>
       <c r="C127" s="9">
-        <v>407</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3322,10 +3319,10 @@
         <v>129</v>
       </c>
       <c r="B128" s="5">
-        <v>58.34000015258789</v>
+        <v>58.31000137329102</v>
       </c>
       <c r="C128" s="6">
-        <v>1279</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3333,10 +3330,10 @@
         <v>130</v>
       </c>
       <c r="B129" s="8">
-        <v>74.16999816894531</v>
+        <v>74.02999877929688</v>
       </c>
       <c r="C129" s="9">
-        <v>1006</v>
+        <v>914</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3344,10 +3341,10 @@
         <v>131</v>
       </c>
       <c r="B130" s="5">
-        <v>464.3349914550781</v>
+        <v>465.3099975585938</v>
       </c>
       <c r="C130" s="6">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3355,10 +3352,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="8">
-        <v>111.5500030517578</v>
+        <v>111.5599975585938</v>
       </c>
       <c r="C131" s="9">
-        <v>668</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3366,10 +3363,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="5">
-        <v>92.48999786376953</v>
+        <v>92.29000091552734</v>
       </c>
       <c r="C132" s="6">
-        <v>806</v>
+        <v>733</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3377,10 +3374,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="8">
-        <v>158.5149993896484</v>
+        <v>158.7299957275391</v>
       </c>
       <c r="C133" s="9">
-        <v>470</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3388,10 +3385,10 @@
         <v>135</v>
       </c>
       <c r="B134" s="5">
-        <v>85.61499786376953</v>
+        <v>86.09999847412109</v>
       </c>
       <c r="C134" s="6">
-        <v>871</v>
+        <v>786</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3399,10 +3396,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="8">
-        <v>167.3500061035156</v>
+        <v>167.3300018310547</v>
       </c>
       <c r="C135" s="9">
-        <v>445</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3410,10 +3407,10 @@
         <v>137</v>
       </c>
       <c r="B136" s="5">
-        <v>126.3199996948242</v>
+        <v>125.9899978637695</v>
       </c>
       <c r="C136" s="6">
-        <v>590</v>
+        <v>537</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3421,10 +3418,10 @@
         <v>138</v>
       </c>
       <c r="B137" s="8">
-        <v>206.0149993896484</v>
+        <v>205.8500061035156</v>
       </c>
       <c r="C137" s="9">
-        <v>362</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3432,10 +3429,10 @@
         <v>139</v>
       </c>
       <c r="B138" s="5">
-        <v>98.12999725341797</v>
+        <v>98.06999969482422</v>
       </c>
       <c r="C138" s="6">
-        <v>760</v>
+        <v>690</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3443,10 +3440,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="8">
-        <v>140.2799987792969</v>
+        <v>142.1000061035156</v>
       </c>
       <c r="C139" s="9">
-        <v>531</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3454,10 +3451,10 @@
         <v>141</v>
       </c>
       <c r="B140" s="5">
-        <v>72.15249633789062</v>
+        <v>72.75</v>
       </c>
       <c r="C140" s="6">
-        <v>1034</v>
+        <v>930</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3465,10 +3462,10 @@
         <v>142</v>
       </c>
       <c r="B141" s="8">
-        <v>20.17000007629395</v>
+        <v>20.19000053405762</v>
       </c>
       <c r="C141" s="9">
-        <v>3699</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3476,10 +3473,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="5">
-        <v>175.0200042724609</v>
+        <v>174.6499938964844</v>
       </c>
       <c r="C142" s="6">
-        <v>426</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3487,10 +3484,10 @@
         <v>144</v>
       </c>
       <c r="B143" s="8">
-        <v>34.28499984741211</v>
+        <v>34.36000061035156</v>
       </c>
       <c r="C143" s="9">
-        <v>2176</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3498,10 +3495,10 @@
         <v>145</v>
       </c>
       <c r="B144" s="5">
-        <v>455.5799865722656</v>
+        <v>447.1199951171875</v>
       </c>
       <c r="C144" s="6">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3509,10 +3506,10 @@
         <v>146</v>
       </c>
       <c r="B145" s="8">
-        <v>204.9299926757812</v>
+        <v>205.1300048828125</v>
       </c>
       <c r="C145" s="9">
-        <v>364</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3520,10 +3517,10 @@
         <v>147</v>
       </c>
       <c r="B146" s="5">
-        <v>136.9700012207031</v>
+        <v>136.5700073242188</v>
       </c>
       <c r="C146" s="6">
-        <v>544</v>
+        <v>495</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3531,10 +3528,10 @@
         <v>148</v>
       </c>
       <c r="B147" s="8">
-        <v>119.7600021362305</v>
+        <v>119.4100036621094</v>
       </c>
       <c r="C147" s="9">
-        <v>623</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3542,10 +3539,10 @@
         <v>149</v>
       </c>
       <c r="B148" s="5">
-        <v>150.6699981689453</v>
+        <v>150.2200012207031</v>
       </c>
       <c r="C148" s="6">
-        <v>495</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3553,10 +3550,10 @@
         <v>150</v>
       </c>
       <c r="B149" s="8">
-        <v>36.79999923706055</v>
+        <v>36.7599983215332</v>
       </c>
       <c r="C149" s="9">
-        <v>2027</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3564,10 +3561,10 @@
         <v>151</v>
       </c>
       <c r="B150" s="5">
-        <v>67.80999755859375</v>
+        <v>67.73999786376953</v>
       </c>
       <c r="C150" s="6">
-        <v>1100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3575,10 +3572,10 @@
         <v>152</v>
       </c>
       <c r="B151" s="8">
-        <v>145.0200042724609</v>
+        <v>144.25</v>
       </c>
       <c r="C151" s="9">
-        <v>514</v>
+        <v>469</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3589,7 +3586,7 @@
         <v>67.16000366210938</v>
       </c>
       <c r="C152" s="6">
-        <v>1111</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3597,10 +3594,10 @@
         <v>154</v>
       </c>
       <c r="B153" s="8">
-        <v>249.9400024414062</v>
+        <v>249.5099945068359</v>
       </c>
       <c r="C153" s="9">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3608,10 +3605,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="5">
-        <v>108.9100036621094</v>
+        <v>108.7699966430664</v>
       </c>
       <c r="C154" s="6">
-        <v>685</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3619,10 +3616,10 @@
         <v>156</v>
       </c>
       <c r="B155" s="8">
-        <v>240.9900054931641</v>
+        <v>240.3300018310547</v>
       </c>
       <c r="C155" s="9">
-        <v>309</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3630,10 +3627,10 @@
         <v>157</v>
       </c>
       <c r="B156" s="5">
-        <v>362.9700012207031</v>
+        <v>361.989990234375</v>
       </c>
       <c r="C156" s="6">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3641,10 +3638,10 @@
         <v>158</v>
       </c>
       <c r="B157" s="8">
-        <v>58.18999862670898</v>
+        <v>58.18000030517578</v>
       </c>
       <c r="C157" s="9">
-        <v>1282</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3652,10 +3649,10 @@
         <v>159</v>
       </c>
       <c r="B158" s="5">
-        <v>65.51000213623047</v>
+        <v>65.41999816894531</v>
       </c>
       <c r="C158" s="6">
-        <v>1139</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3663,10 +3660,10 @@
         <v>160</v>
       </c>
       <c r="B159" s="8">
-        <v>435.4700012207031</v>
+        <v>432</v>
       </c>
       <c r="C159" s="9">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3674,10 +3671,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="5">
-        <v>87.03500366210938</v>
+        <v>87.05000305175781</v>
       </c>
       <c r="C160" s="6">
-        <v>857</v>
+        <v>778</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3685,10 +3682,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="8">
-        <v>108.6500015258789</v>
+        <v>108.6399993896484</v>
       </c>
       <c r="C161" s="9">
-        <v>686</v>
+        <v>623</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3696,10 +3693,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="5">
-        <v>62.09000015258789</v>
+        <v>61.65000152587891</v>
       </c>
       <c r="C162" s="6">
-        <v>1201</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3707,10 +3704,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="8">
-        <v>126.754997253418</v>
+        <v>126.5899963378906</v>
       </c>
       <c r="C163" s="9">
-        <v>588</v>
+        <v>535</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3718,10 +3715,10 @@
         <v>165</v>
       </c>
       <c r="B164" s="5">
-        <v>167.3699951171875</v>
+        <v>168.9299926757812</v>
       </c>
       <c r="C164" s="6">
-        <v>445</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3729,10 +3726,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="8">
-        <v>799.9099731445312</v>
+        <v>803</v>
       </c>
       <c r="C165" s="9">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3740,10 +3737,10 @@
         <v>167</v>
       </c>
       <c r="B166" s="5">
-        <v>71.17500305175781</v>
+        <v>71.37999725341797</v>
       </c>
       <c r="C166" s="6">
-        <v>1048</v>
+        <v>948</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3751,10 +3748,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="8">
-        <v>52.85499954223633</v>
+        <v>53.0099983215332</v>
       </c>
       <c r="C167" s="9">
-        <v>1411</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3762,10 +3759,10 @@
         <v>169</v>
       </c>
       <c r="B168" s="5">
-        <v>414.5849914550781</v>
+        <v>410.6600036621094</v>
       </c>
       <c r="C168" s="6">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3773,10 +3770,10 @@
         <v>170</v>
       </c>
       <c r="B169" s="8">
-        <v>61.47999954223633</v>
+        <v>61.11999893188477</v>
       </c>
       <c r="C169" s="9">
-        <v>1213</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3784,10 +3781,10 @@
         <v>171</v>
       </c>
       <c r="B170" s="5">
-        <v>305.0249938964844</v>
+        <v>306</v>
       </c>
       <c r="C170" s="6">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3795,10 +3792,10 @@
         <v>172</v>
       </c>
       <c r="B171" s="8">
-        <v>273.3999938964844</v>
+        <v>274.1700134277344</v>
       </c>
       <c r="C171" s="9">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3806,10 +3803,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="5">
-        <v>84.44000244140625</v>
+        <v>84.41000366210938</v>
       </c>
       <c r="C172" s="6">
-        <v>883</v>
+        <v>802</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3817,10 +3814,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="8">
-        <v>68.04499816894531</v>
+        <v>67.87000274658203</v>
       </c>
       <c r="C173" s="9">
-        <v>1096</v>
+        <v>997</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3828,10 +3825,10 @@
         <v>175</v>
       </c>
       <c r="B174" s="5">
-        <v>70.88999938964844</v>
+        <v>70.91000366210938</v>
       </c>
       <c r="C174" s="6">
-        <v>1052</v>
+        <v>955</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3839,10 +3836,10 @@
         <v>176</v>
       </c>
       <c r="B175" s="8">
-        <v>44.8650016784668</v>
+        <v>44.70999908447266</v>
       </c>
       <c r="C175" s="9">
-        <v>1663</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3850,10 +3847,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="5">
-        <v>110.3899993896484</v>
+        <v>110.9400024414062</v>
       </c>
       <c r="C176" s="6">
-        <v>675</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3861,10 +3858,10 @@
         <v>178</v>
       </c>
       <c r="B177" s="8">
-        <v>120.1100006103516</v>
+        <v>119.7300033569336</v>
       </c>
       <c r="C177" s="9">
-        <v>621</v>
+        <v>565</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3872,10 +3869,10 @@
         <v>179</v>
       </c>
       <c r="B178" s="5">
-        <v>167.8399963378906</v>
+        <v>168.1000061035156</v>
       </c>
       <c r="C178" s="6">
-        <v>444</v>
+        <v>402</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3883,10 +3880,10 @@
         <v>180</v>
       </c>
       <c r="B179" s="8">
-        <v>145.1699981689453</v>
+        <v>145.4600067138672</v>
       </c>
       <c r="C179" s="9">
-        <v>514</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3894,10 +3891,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="5">
-        <v>9.670000076293945</v>
+        <v>9.720000267028809</v>
       </c>
       <c r="C180" s="6">
-        <v>7716</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3905,10 +3902,10 @@
         <v>182</v>
       </c>
       <c r="B181" s="8">
-        <v>157.1349945068359</v>
+        <v>157.5399932861328</v>
       </c>
       <c r="C181" s="9">
-        <v>474</v>
+        <v>429</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3916,10 +3913,10 @@
         <v>183</v>
       </c>
       <c r="B182" s="5">
-        <v>76.18000030517578</v>
+        <v>76.16999816894531</v>
       </c>
       <c r="C182" s="6">
-        <v>979</v>
+        <v>889</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3927,10 +3924,10 @@
         <v>184</v>
       </c>
       <c r="B183" s="8">
-        <v>38.64500045776367</v>
+        <v>38.41999816894531</v>
       </c>
       <c r="C183" s="9">
-        <v>1930</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3938,10 +3935,10 @@
         <v>185</v>
       </c>
       <c r="B184" s="5">
-        <v>448.2999877929688</v>
+        <v>448.760009765625</v>
       </c>
       <c r="C184" s="6">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3949,10 +3946,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="8">
-        <v>241.8699951171875</v>
+        <v>241.7100067138672</v>
       </c>
       <c r="C185" s="9">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3960,10 +3957,10 @@
         <v>187</v>
       </c>
       <c r="B186" s="5">
-        <v>40.16500091552734</v>
+        <v>40.06000137329102</v>
       </c>
       <c r="C186" s="6">
-        <v>1857</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3971,10 +3968,10 @@
         <v>188</v>
       </c>
       <c r="B187" s="8">
-        <v>263.7550048828125</v>
+        <v>263.8800048828125</v>
       </c>
       <c r="C187" s="9">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3982,10 +3979,10 @@
         <v>189</v>
       </c>
       <c r="B188" s="5">
-        <v>216.3000030517578</v>
+        <v>216.1300048828125</v>
       </c>
       <c r="C188" s="6">
-        <v>344</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3993,10 +3990,10 @@
         <v>190</v>
       </c>
       <c r="B189" s="8">
-        <v>1831.594970703125</v>
+        <v>1835.239990234375</v>
       </c>
       <c r="C189" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4004,10 +4001,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="5">
-        <v>73.76999664306641</v>
+        <v>73.65000152587891</v>
       </c>
       <c r="C190" s="6">
-        <v>1011</v>
+        <v>919</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4015,10 +4012,10 @@
         <v>192</v>
       </c>
       <c r="B191" s="8">
-        <v>38.84500122070312</v>
+        <v>38.81000137329102</v>
       </c>
       <c r="C191" s="9">
-        <v>1920</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4026,10 +4023,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="5">
-        <v>50.40000152587891</v>
+        <v>50.52000045776367</v>
       </c>
       <c r="C192" s="6">
-        <v>1480</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4037,10 +4034,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="8">
-        <v>54.6150016784668</v>
+        <v>54.72999954223633</v>
       </c>
       <c r="C193" s="9">
-        <v>1366</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4048,10 +4045,10 @@
         <v>195</v>
       </c>
       <c r="B194" s="5">
-        <v>96.22000122070312</v>
+        <v>96.93000030517578</v>
       </c>
       <c r="C194" s="6">
-        <v>775</v>
+        <v>698</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4059,10 +4056,10 @@
         <v>196</v>
       </c>
       <c r="B195" s="8">
-        <v>127.7399978637695</v>
+        <v>127.3199996948242</v>
       </c>
       <c r="C195" s="9">
-        <v>584</v>
+        <v>531</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4070,10 +4067,10 @@
         <v>197</v>
       </c>
       <c r="B196" s="5">
-        <v>96.41000366210938</v>
+        <v>96.59999847412109</v>
       </c>
       <c r="C196" s="6">
-        <v>773</v>
+        <v>701</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4081,10 +4078,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="8">
-        <v>72.77999877929688</v>
+        <v>72.62999725341797</v>
       </c>
       <c r="C197" s="9">
-        <v>1025</v>
+        <v>932</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4092,10 +4089,10 @@
         <v>199</v>
       </c>
       <c r="B198" s="5">
-        <v>269.7799987792969</v>
+        <v>269.0799865722656</v>
       </c>
       <c r="C198" s="6">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4103,10 +4100,10 @@
         <v>200</v>
       </c>
       <c r="B199" s="8">
-        <v>179.6499938964844</v>
+        <v>178.8800048828125</v>
       </c>
       <c r="C199" s="9">
-        <v>415</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4114,10 +4111,10 @@
         <v>201</v>
       </c>
       <c r="B200" s="5">
-        <v>200.1000061035156</v>
+        <v>199.8800048828125</v>
       </c>
       <c r="C200" s="6">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4125,10 +4122,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="8">
-        <v>80.23500061035156</v>
+        <v>80.01000213623047</v>
       </c>
       <c r="C201" s="9">
-        <v>930</v>
+        <v>846</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4136,10 +4133,10 @@
         <v>203</v>
       </c>
       <c r="B202" s="5">
-        <v>26.44499969482422</v>
+        <v>26.43000030517578</v>
       </c>
       <c r="C202" s="6">
-        <v>2821</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4147,10 +4144,10 @@
         <v>204</v>
       </c>
       <c r="B203" s="8">
-        <v>301.3699951171875</v>
+        <v>302.9299926757812</v>
       </c>
       <c r="C203" s="9">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4158,10 +4155,10 @@
         <v>205</v>
       </c>
       <c r="B204" s="5">
-        <v>112.3499984741211</v>
+        <v>111.7900009155273</v>
       </c>
       <c r="C204" s="6">
-        <v>664</v>
+        <v>605</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4169,10 +4166,10 @@
         <v>206</v>
       </c>
       <c r="B205" s="8">
-        <v>59.24499893188477</v>
+        <v>59.11000061035156</v>
       </c>
       <c r="C205" s="9">
-        <v>1259</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4180,10 +4177,10 @@
         <v>207</v>
       </c>
       <c r="B206" s="5">
-        <v>129.7850036621094</v>
+        <v>129.7700042724609</v>
       </c>
       <c r="C206" s="6">
-        <v>574</v>
+        <v>521</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4191,10 +4188,10 @@
         <v>208</v>
       </c>
       <c r="B207" s="8">
-        <v>45.72999954223633</v>
+        <v>45.86000061035156</v>
       </c>
       <c r="C207" s="9">
-        <v>1631</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4202,10 +4199,10 @@
         <v>209</v>
       </c>
       <c r="B208" s="5">
-        <v>46.56000137329102</v>
+        <v>46.68000030517578</v>
       </c>
       <c r="C208" s="6">
-        <v>1602</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4213,10 +4210,10 @@
         <v>210</v>
       </c>
       <c r="B209" s="8">
-        <v>126.5800018310547</v>
+        <v>127.0899963378906</v>
       </c>
       <c r="C209" s="9">
-        <v>589</v>
+        <v>532</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4224,10 +4221,10 @@
         <v>211</v>
       </c>
       <c r="B210" s="5">
-        <v>156.3899993896484</v>
+        <v>156.0599975585938</v>
       </c>
       <c r="C210" s="6">
-        <v>477</v>
+        <v>433</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4235,10 +4232,10 @@
         <v>212</v>
       </c>
       <c r="B211" s="8">
-        <v>154.6849975585938</v>
+        <v>154.3300018310547</v>
       </c>
       <c r="C211" s="9">
-        <v>482</v>
+        <v>438</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4246,10 +4243,10 @@
         <v>213</v>
       </c>
       <c r="B212" s="5">
-        <v>118.3399963378906</v>
+        <v>118.4700012207031</v>
       </c>
       <c r="C212" s="6">
-        <v>630</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4257,10 +4254,10 @@
         <v>214</v>
       </c>
       <c r="B213" s="8">
-        <v>97.69000244140625</v>
+        <v>97.51999664306641</v>
       </c>
       <c r="C213" s="9">
-        <v>763</v>
+        <v>694</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4268,10 +4265,10 @@
         <v>215</v>
       </c>
       <c r="B214" s="5">
-        <v>213.1100006103516</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="C214" s="6">
-        <v>350</v>
+        <v>316</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4279,10 +4276,10 @@
         <v>216</v>
       </c>
       <c r="B215" s="8">
-        <v>541.6669921875</v>
+        <v>543.1199951171875</v>
       </c>
       <c r="C215" s="9">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4290,10 +4287,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="5">
-        <v>975.219970703125</v>
+        <v>975.030029296875</v>
       </c>
       <c r="C216" s="6">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4301,10 +4298,10 @@
         <v>218</v>
       </c>
       <c r="B217" s="8">
-        <v>25.08499908447266</v>
+        <v>25.06999969482422</v>
       </c>
       <c r="C217" s="9">
-        <v>2974</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4312,10 +4309,10 @@
         <v>219</v>
       </c>
       <c r="B218" s="5">
-        <v>60.52000045776367</v>
+        <v>60.59000015258789</v>
       </c>
       <c r="C218" s="6">
-        <v>1232</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4323,10 +4320,10 @@
         <v>220</v>
       </c>
       <c r="B219" s="8">
-        <v>14.78499984741211</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="C219" s="9">
-        <v>5047</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4334,10 +4331,10 @@
         <v>221</v>
       </c>
       <c r="B220" s="5">
-        <v>342.2149963378906</v>
+        <v>342.1600036621094</v>
       </c>
       <c r="C220" s="6">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4345,10 +4342,10 @@
         <v>222</v>
       </c>
       <c r="B221" s="8">
-        <v>358.3500061035156</v>
+        <v>358.1499938964844</v>
       </c>
       <c r="C221" s="9">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4356,10 +4353,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="5">
-        <v>158.6999969482422</v>
+        <v>158.4499969482422</v>
       </c>
       <c r="C222" s="6">
-        <v>470</v>
+        <v>427</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4367,10 +4364,10 @@
         <v>224</v>
       </c>
       <c r="B223" s="8">
-        <v>122.4349975585938</v>
+        <v>122.2200012207031</v>
       </c>
       <c r="C223" s="9">
-        <v>609</v>
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4378,10 +4375,10 @@
         <v>225</v>
       </c>
       <c r="B224" s="5">
-        <v>205.4850006103516</v>
+        <v>205.3200073242188</v>
       </c>
       <c r="C224" s="6">
-        <v>363</v>
+        <v>329</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4389,10 +4386,10 @@
         <v>226</v>
       </c>
       <c r="B225" s="8">
-        <v>225.6100006103516</v>
+        <v>225.7100067138672</v>
       </c>
       <c r="C225" s="9">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4400,10 +4397,10 @@
         <v>227</v>
       </c>
       <c r="B226" s="5">
-        <v>61.40499877929688</v>
+        <v>61.31999969482422</v>
       </c>
       <c r="C226" s="6">
-        <v>1215</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4411,10 +4408,10 @@
         <v>228</v>
       </c>
       <c r="B227" s="8">
-        <v>210.625</v>
+        <v>210.3399963378906</v>
       </c>
       <c r="C227" s="9">
-        <v>354</v>
+        <v>321</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4422,10 +4419,10 @@
         <v>229</v>
       </c>
       <c r="B228" s="5">
-        <v>15.68000030517578</v>
+        <v>15.78999996185303</v>
       </c>
       <c r="C228" s="6">
-        <v>4758</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4433,10 +4430,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="8">
-        <v>27.88579940795898</v>
+        <v>27.89999961853027</v>
       </c>
       <c r="C229" s="9">
-        <v>2675</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4444,10 +4441,10 @@
         <v>231</v>
       </c>
       <c r="B230" s="5">
-        <v>30.3799991607666</v>
+        <v>30.36000061035156</v>
       </c>
       <c r="C230" s="6">
-        <v>2456</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4455,10 +4452,10 @@
         <v>232</v>
       </c>
       <c r="B231" s="8">
-        <v>68.98000335693359</v>
+        <v>68.62000274658203</v>
       </c>
       <c r="C231" s="9">
-        <v>1081</v>
+        <v>987</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4466,10 +4463,10 @@
         <v>233</v>
       </c>
       <c r="B232" s="5">
-        <v>14.21500015258789</v>
+        <v>169.8600006103516</v>
       </c>
       <c r="C232" s="6">
-        <v>5249</v>
+        <v>398</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4477,10 +4474,10 @@
         <v>234</v>
       </c>
       <c r="B233" s="8">
-        <v>170.3600006103516</v>
+        <v>332.010009765625</v>
       </c>
       <c r="C233" s="9">
-        <v>438</v>
+        <v>203</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4488,10 +4485,10 @@
         <v>235</v>
       </c>
       <c r="B234" s="5">
-        <v>332.760009765625</v>
+        <v>264.5799865722656</v>
       </c>
       <c r="C234" s="6">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4499,10 +4496,10 @@
         <v>236</v>
       </c>
       <c r="B235" s="8">
-        <v>267.6600036621094</v>
+        <v>129.6900024414062</v>
       </c>
       <c r="C235" s="9">
-        <v>278</v>
+        <v>522</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4510,10 +4507,10 @@
         <v>237</v>
       </c>
       <c r="B236" s="5">
-        <v>129.8500061035156</v>
+        <v>244</v>
       </c>
       <c r="C236" s="6">
-        <v>574</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4521,10 +4518,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="8">
-        <v>243.7601013183594</v>
+        <v>174.7100067138672</v>
       </c>
       <c r="C237" s="9">
-        <v>306</v>
+        <v>387</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4532,10 +4529,10 @@
         <v>239</v>
       </c>
       <c r="B238" s="5">
-        <v>175.8200073242188</v>
+        <v>415.8699951171875</v>
       </c>
       <c r="C238" s="6">
-        <v>424</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4543,10 +4540,10 @@
         <v>240</v>
       </c>
       <c r="B239" s="8">
-        <v>417.1099853515625</v>
+        <v>180.9100036621094</v>
       </c>
       <c r="C239" s="9">
-        <v>178</v>
+        <v>374</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4554,10 +4551,10 @@
         <v>241</v>
       </c>
       <c r="B240" s="5">
-        <v>180.8899993896484</v>
+        <v>76.48000335693359</v>
       </c>
       <c r="C240" s="6">
-        <v>412</v>
+        <v>885</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4565,10 +4562,10 @@
         <v>242</v>
       </c>
       <c r="B241" s="8">
-        <v>76.71499633789062</v>
+        <v>60.59999847412109</v>
       </c>
       <c r="C241" s="9">
-        <v>972</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4576,10 +4573,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="5">
-        <v>60.63000106811523</v>
+        <v>22.70999908447266</v>
       </c>
       <c r="C242" s="6">
-        <v>1230</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4587,10 +4584,10 @@
         <v>244</v>
       </c>
       <c r="B243" s="8">
-        <v>22.81999969482422</v>
+        <v>598.9199829101562</v>
       </c>
       <c r="C243" s="9">
-        <v>3269</v>
+        <v>113</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4598,10 +4595,10 @@
         <v>245</v>
       </c>
       <c r="B244" s="5">
-        <v>598.4500122070312</v>
+        <v>34.47000122070312</v>
       </c>
       <c r="C244" s="6">
-        <v>124</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4609,10 +4606,10 @@
         <v>246</v>
       </c>
       <c r="B245" s="8">
-        <v>34.33499908447266</v>
+        <v>53.20999908447266</v>
       </c>
       <c r="C245" s="9">
-        <v>2173</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4620,10 +4617,10 @@
         <v>247</v>
       </c>
       <c r="B246" s="5">
-        <v>53.09999847412109</v>
+        <v>26.29000091552734</v>
       </c>
       <c r="C246" s="6">
-        <v>1405</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4631,10 +4628,10 @@
         <v>248</v>
       </c>
       <c r="B247" s="8">
-        <v>26.27000045776367</v>
+        <v>177.3899993896484</v>
       </c>
       <c r="C247" s="9">
-        <v>2840</v>
+        <v>381</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4642,10 +4639,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="5">
-        <v>178.3200073242188</v>
+        <v>79.44000244140625</v>
       </c>
       <c r="C248" s="6">
-        <v>418</v>
+        <v>852</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4653,10 +4650,10 @@
         <v>250</v>
       </c>
       <c r="B249" s="8">
-        <v>79.40499877929688</v>
+        <v>85.09999847412109</v>
       </c>
       <c r="C249" s="9">
-        <v>939</v>
+        <v>795</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4664,10 +4661,10 @@
         <v>251</v>
       </c>
       <c r="B250" s="5">
-        <v>84.91999816894531</v>
+        <v>491.8399963378906</v>
       </c>
       <c r="C250" s="6">
-        <v>878</v>
+        <v>137</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4675,10 +4672,10 @@
         <v>252</v>
       </c>
       <c r="B251" s="8">
-        <v>489.2300109863281</v>
+        <v>418.25</v>
       </c>
       <c r="C251" s="9">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4686,10 +4683,10 @@
         <v>253</v>
       </c>
       <c r="B252" s="5">
-        <v>419.9549865722656</v>
+        <v>246.4600067138672</v>
       </c>
       <c r="C252" s="6">
-        <v>177</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4697,10 +4694,10 @@
         <v>254</v>
       </c>
       <c r="B253" s="8">
-        <v>247.5200042724609</v>
+        <v>15.1899995803833</v>
       </c>
       <c r="C253" s="9">
-        <v>301</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4708,10 +4705,10 @@
         <v>255</v>
       </c>
       <c r="B254" s="5">
-        <v>15.1850004196167</v>
+        <v>121.2200012207031</v>
       </c>
       <c r="C254" s="6">
-        <v>4914</v>
+        <v>558</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4719,10 +4716,10 @@
         <v>256</v>
       </c>
       <c r="B255" s="8">
-        <v>121.2149963378906</v>
+        <v>146.1199951171875</v>
       </c>
       <c r="C255" s="9">
-        <v>615</v>
+        <v>463</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4730,10 +4727,10 @@
         <v>257</v>
       </c>
       <c r="B256" s="5">
-        <v>146.6499938964844</v>
+        <v>135.9900054931641</v>
       </c>
       <c r="C256" s="6">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4741,10 +4738,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="8">
-        <v>135.6900024414062</v>
+        <v>79.69000244140625</v>
       </c>
       <c r="C257" s="9">
-        <v>549</v>
+        <v>849</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4752,10 +4749,10 @@
         <v>259</v>
       </c>
       <c r="B258" s="5">
-        <v>79.93499755859375</v>
+        <v>178.5899963378906</v>
       </c>
       <c r="C258" s="6">
-        <v>933</v>
+        <v>379</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4763,10 +4760,10 @@
         <v>260</v>
       </c>
       <c r="B259" s="8">
-        <v>178.9799957275391</v>
+        <v>163.7100067138672</v>
       </c>
       <c r="C259" s="9">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4774,10 +4771,10 @@
         <v>261</v>
       </c>
       <c r="B260" s="5">
-        <v>163.9499969482422</v>
+        <v>36.11999893188477</v>
       </c>
       <c r="C260" s="6">
-        <v>455</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4785,10 +4782,10 @@
         <v>262</v>
       </c>
       <c r="B261" s="8">
-        <v>36.09999847412109</v>
+        <v>242.8500061035156</v>
       </c>
       <c r="C261" s="9">
-        <v>2067</v>
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4796,10 +4793,10 @@
         <v>263</v>
       </c>
       <c r="B262" s="5">
-        <v>242.2200012207031</v>
+        <v>82.47000122070312</v>
       </c>
       <c r="C262" s="6">
-        <v>308</v>
+        <v>821</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4807,10 +4804,10 @@
         <v>264</v>
       </c>
       <c r="B263" s="8">
-        <v>82.40499877929688</v>
+        <v>33.7400016784668</v>
       </c>
       <c r="C263" s="9">
-        <v>905</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4818,10 +4815,10 @@
         <v>265</v>
       </c>
       <c r="B264" s="5">
-        <v>33.75500106811523</v>
+        <v>15.80000019073486</v>
       </c>
       <c r="C264" s="6">
-        <v>2210</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4829,10 +4826,10 @@
         <v>266</v>
       </c>
       <c r="B265" s="8">
-        <v>15.77499961853027</v>
+        <v>150.3300018310547</v>
       </c>
       <c r="C265" s="9">
-        <v>4730</v>
+        <v>450</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4840,10 +4837,10 @@
         <v>267</v>
       </c>
       <c r="B266" s="5">
-        <v>150.0599975585938</v>
+        <v>30.23999977111816</v>
       </c>
       <c r="C266" s="6">
-        <v>497</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4851,10 +4848,10 @@
         <v>268</v>
       </c>
       <c r="B267" s="8">
-        <v>30.15999984741211</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="C267" s="9">
-        <v>2474</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4862,10 +4859,10 @@
         <v>269</v>
       </c>
       <c r="B268" s="5">
-        <v>20.79000091552734</v>
+        <v>114.8600006103516</v>
       </c>
       <c r="C268" s="6">
-        <v>3589</v>
+        <v>589</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4873,10 +4870,10 @@
         <v>270</v>
       </c>
       <c r="B269" s="8">
-        <v>115.2949981689453</v>
+        <v>673.5999755859375</v>
       </c>
       <c r="C269" s="9">
-        <v>647</v>
+        <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4884,10 +4881,10 @@
         <v>271</v>
       </c>
       <c r="B270" s="5">
-        <v>676.6699829101562</v>
+        <v>140.7100067138672</v>
       </c>
       <c r="C270" s="6">
-        <v>110</v>
+        <v>481</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4895,10 +4892,10 @@
         <v>272</v>
       </c>
       <c r="B271" s="8">
-        <v>140.7899932861328</v>
+        <v>28.3700008392334</v>
       </c>
       <c r="C271" s="9">
-        <v>530</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4906,10 +4903,10 @@
         <v>273</v>
       </c>
       <c r="B272" s="5">
-        <v>28.34440040588379</v>
+        <v>75.98999786376953</v>
       </c>
       <c r="C272" s="6">
-        <v>2632</v>
+        <v>891</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4917,10 +4914,10 @@
         <v>274</v>
       </c>
       <c r="B273" s="8">
-        <v>75.33999633789062</v>
+        <v>70.37000274658203</v>
       </c>
       <c r="C273" s="9">
-        <v>990</v>
+        <v>962</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4928,10 +4925,10 @@
         <v>275</v>
       </c>
       <c r="B274" s="5">
-        <v>70.22499847412109</v>
+        <v>66.72000122070312</v>
       </c>
       <c r="C274" s="6">
-        <v>1062</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4939,10 +4936,10 @@
         <v>276</v>
       </c>
       <c r="B275" s="8">
-        <v>66.68000030517578</v>
+        <v>23.70000076293945</v>
       </c>
       <c r="C275" s="9">
-        <v>1119</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4950,10 +4947,10 @@
         <v>277</v>
       </c>
       <c r="B276" s="5">
-        <v>23.69879913330078</v>
+        <v>90.63999938964844</v>
       </c>
       <c r="C276" s="6">
-        <v>3148</v>
+        <v>747</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4961,10 +4958,10 @@
         <v>278</v>
       </c>
       <c r="B277" s="8">
-        <v>90.58999633789062</v>
+        <v>134.0599975585938</v>
       </c>
       <c r="C277" s="9">
-        <v>823</v>
+        <v>505</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4972,10 +4969,10 @@
         <v>279</v>
       </c>
       <c r="B278" s="5">
-        <v>134.8699951171875</v>
+        <v>113.9300003051758</v>
       </c>
       <c r="C278" s="6">
-        <v>553</v>
+        <v>594</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4983,10 +4980,10 @@
         <v>280</v>
       </c>
       <c r="B279" s="8">
-        <v>114.2300033569336</v>
+        <v>230.0200042724609</v>
       </c>
       <c r="C279" s="9">
-        <v>653</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4994,10 +4991,10 @@
         <v>281</v>
       </c>
       <c r="B280" s="5">
-        <v>230.1174926757812</v>
+        <v>207.75</v>
       </c>
       <c r="C280" s="6">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5005,10 +5002,10 @@
         <v>282</v>
       </c>
       <c r="B281" s="8">
-        <v>208.9199981689453</v>
+        <v>553.0499877929688</v>
       </c>
       <c r="C281" s="9">
-        <v>357</v>
+        <v>122</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5016,10 +5013,10 @@
         <v>283</v>
       </c>
       <c r="B282" s="5">
-        <v>553.2650146484375</v>
+        <v>459.1099853515625</v>
       </c>
       <c r="C282" s="6">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5027,10 +5024,10 @@
         <v>284</v>
       </c>
       <c r="B283" s="8">
-        <v>460.8800048828125</v>
+        <v>41.59000015258789</v>
       </c>
       <c r="C283" s="9">
-        <v>161</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5038,10 +5035,10 @@
         <v>285</v>
       </c>
       <c r="B284" s="5">
-        <v>41.54000091552734</v>
+        <v>822.510009765625</v>
       </c>
       <c r="C284" s="6">
-        <v>1796</v>
+        <v>82</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5049,10 +5046,10 @@
         <v>286</v>
       </c>
       <c r="B285" s="8">
-        <v>820.2000122070312</v>
+        <v>441.489990234375</v>
       </c>
       <c r="C285" s="9">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5060,10 +5057,10 @@
         <v>287</v>
       </c>
       <c r="B286" s="5">
-        <v>442.3500061035156</v>
+        <v>63.58000183105469</v>
       </c>
       <c r="C286" s="6">
-        <v>168</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5071,10 +5068,10 @@
         <v>288</v>
       </c>
       <c r="B287" s="8">
-        <v>63.75</v>
+        <v>228.4199981689453</v>
       </c>
       <c r="C287" s="9">
-        <v>1170</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5082,10 +5079,10 @@
         <v>289</v>
       </c>
       <c r="B288" s="5">
-        <v>228.5800018310547</v>
+        <v>72.61000061035156</v>
       </c>
       <c r="C288" s="6">
-        <v>326</v>
+        <v>932</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5093,10 +5090,10 @@
         <v>290</v>
       </c>
       <c r="B289" s="8">
-        <v>72.87000274658203</v>
+        <v>293.0599975585938</v>
       </c>
       <c r="C289" s="9">
-        <v>1024</v>
+        <v>231</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5104,10 +5101,10 @@
         <v>291</v>
       </c>
       <c r="B290" s="5">
-        <v>291.0700988769531</v>
+        <v>33.59000015258789</v>
       </c>
       <c r="C290" s="6">
-        <v>256</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5115,10 +5112,10 @@
         <v>292</v>
       </c>
       <c r="B291" s="8">
-        <v>33.61999893188477</v>
+        <v>38.18000030517578</v>
       </c>
       <c r="C291" s="9">
-        <v>2219</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5126,10 +5123,10 @@
         <v>293</v>
       </c>
       <c r="B292" s="5">
-        <v>38.43999862670898</v>
+        <v>54.0099983215332</v>
       </c>
       <c r="C292" s="6">
-        <v>1941</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5137,10 +5134,10 @@
         <v>294</v>
       </c>
       <c r="B293" s="8">
-        <v>54.20000076293945</v>
+        <v>69.81999969482422</v>
       </c>
       <c r="C293" s="9">
-        <v>1376</v>
+        <v>970</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5148,10 +5145,10 @@
         <v>295</v>
       </c>
       <c r="B294" s="5">
-        <v>70.13500213623047</v>
+        <v>125.0299987792969</v>
       </c>
       <c r="C294" s="6">
-        <v>1063</v>
+        <v>541</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5159,10 +5156,10 @@
         <v>296</v>
       </c>
       <c r="B295" s="8">
-        <v>124.870002746582</v>
+        <v>540.6099853515625</v>
       </c>
       <c r="C295" s="9">
-        <v>597</v>
+        <v>125</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5170,10 +5167,10 @@
         <v>297</v>
       </c>
       <c r="B296" s="5">
-        <v>542.6849975585938</v>
+        <v>165.8999938964844</v>
       </c>
       <c r="C296" s="6">
-        <v>137</v>
+        <v>408</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5181,10 +5178,10 @@
         <v>298</v>
       </c>
       <c r="B297" s="8">
-        <v>164.9600067138672</v>
+        <v>237.0099945068359</v>
       </c>
       <c r="C297" s="9">
-        <v>452</v>
+        <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5192,10 +5189,10 @@
         <v>299</v>
       </c>
       <c r="B298" s="5">
-        <v>237.1199951171875</v>
+        <v>68.66999816894531</v>
       </c>
       <c r="C298" s="6">
-        <v>314</v>
+        <v>986</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5203,10 +5200,10 @@
         <v>300</v>
       </c>
       <c r="B299" s="8">
-        <v>68.78500366210938</v>
+        <v>307.0899963378906</v>
       </c>
       <c r="C299" s="9">
-        <v>1084</v>
+        <v>220</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5214,10 +5211,10 @@
         <v>301</v>
       </c>
       <c r="B300" s="5">
-        <v>307.6600036621094</v>
+        <v>48.70000076293945</v>
       </c>
       <c r="C300" s="6">
-        <v>242</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5225,10 +5222,10 @@
         <v>302</v>
       </c>
       <c r="B301" s="8">
-        <v>49.20249938964844</v>
+        <v>668.0599975585938</v>
       </c>
       <c r="C301" s="9">
-        <v>1516</v>
+        <v>101</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5236,10 +5233,10 @@
         <v>303</v>
       </c>
       <c r="B302" s="5">
-        <v>666.1699829101562</v>
+        <v>461.3800048828125</v>
       </c>
       <c r="C302" s="6">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5247,10 +5244,10 @@
         <v>304</v>
       </c>
       <c r="B303" s="8">
-        <v>462.4849853515625</v>
+        <v>67.72000122070312</v>
       </c>
       <c r="C303" s="9">
-        <v>161</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5258,10 +5255,10 @@
         <v>305</v>
       </c>
       <c r="B304" s="5">
-        <v>67.52999877929688</v>
+        <v>87.62999725341797</v>
       </c>
       <c r="C304" s="6">
-        <v>1105</v>
+        <v>772</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5269,10 +5266,10 @@
         <v>306</v>
       </c>
       <c r="B305" s="8">
-        <v>87.86969757080078</v>
+        <v>79.23000335693359</v>
       </c>
       <c r="C305" s="9">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5280,10 +5277,10 @@
         <v>307</v>
       </c>
       <c r="B306" s="5">
-        <v>79.04499816894531</v>
+        <v>576.739990234375</v>
       </c>
       <c r="C306" s="6">
-        <v>944</v>
+        <v>117</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5291,10 +5288,10 @@
         <v>308</v>
       </c>
       <c r="B307" s="8">
-        <v>575.6599731445312</v>
+        <v>30.36000061035156</v>
       </c>
       <c r="C307" s="9">
-        <v>129</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5302,10 +5299,10 @@
         <v>309</v>
       </c>
       <c r="B308" s="5">
-        <v>30.46999931335449</v>
+        <v>113.7399978637695</v>
       </c>
       <c r="C308" s="6">
-        <v>2448</v>
+        <v>595</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5313,10 +5310,10 @@
         <v>310</v>
       </c>
       <c r="B309" s="8">
-        <v>113.8099975585938</v>
+        <v>81.45999908447266</v>
       </c>
       <c r="C309" s="9">
-        <v>655</v>
+        <v>831</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5324,10 +5321,10 @@
         <v>311</v>
       </c>
       <c r="B310" s="5">
-        <v>81.37999725341797</v>
+        <v>216.75</v>
       </c>
       <c r="C310" s="6">
-        <v>916</v>
+        <v>312</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5335,10 +5332,10 @@
         <v>312</v>
       </c>
       <c r="B311" s="8">
-        <v>217.6974945068359</v>
+        <v>478</v>
       </c>
       <c r="C311" s="9">
-        <v>342</v>
+        <v>141</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5346,10 +5343,10 @@
         <v>313</v>
       </c>
       <c r="B312" s="5">
-        <v>476.0400085449219</v>
+        <v>242.3899993896484</v>
       </c>
       <c r="C312" s="6">
-        <v>156</v>
+        <v>279</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5357,10 +5354,10 @@
         <v>314</v>
       </c>
       <c r="B313" s="8">
-        <v>242.1349945068359</v>
+        <v>144.8399963378906</v>
       </c>
       <c r="C313" s="9">
-        <v>308</v>
+        <v>467</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5368,10 +5365,10 @@
         <v>315</v>
       </c>
       <c r="B314" s="5">
-        <v>145</v>
+        <v>57.86000061035156</v>
       </c>
       <c r="C314" s="6">
-        <v>514</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5379,10 +5376,10 @@
         <v>316</v>
       </c>
       <c r="B315" s="8">
-        <v>57.93999862670898</v>
+        <v>58.15000152587891</v>
       </c>
       <c r="C315" s="9">
-        <v>1287</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5390,10 +5387,10 @@
         <v>317</v>
       </c>
       <c r="B316" s="5">
-        <v>58.02000045776367</v>
+        <v>322.8500061035156</v>
       </c>
       <c r="C316" s="6">
-        <v>1286</v>
+        <v>209</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5401,10 +5398,10 @@
         <v>318</v>
       </c>
       <c r="B317" s="8">
-        <v>323.9674987792969</v>
+        <v>27.25</v>
       </c>
       <c r="C317" s="9">
-        <v>230</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5412,10 +5409,10 @@
         <v>319</v>
       </c>
       <c r="B318" s="5">
-        <v>27.27000045776367</v>
+        <v>144.1000061035156</v>
       </c>
       <c r="C318" s="6">
-        <v>2736</v>
+        <v>470</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5423,10 +5420,10 @@
         <v>320</v>
       </c>
       <c r="B319" s="8">
-        <v>144.0449981689453</v>
+        <v>579.8900146484375</v>
       </c>
       <c r="C319" s="9">
-        <v>518</v>
+        <v>116</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5434,10 +5431,10 @@
         <v>321</v>
       </c>
       <c r="B320" s="5">
-        <v>580.8800048828125</v>
+        <v>89.23000335693359</v>
       </c>
       <c r="C320" s="6">
-        <v>128</v>
+        <v>759</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5445,10 +5442,10 @@
         <v>322</v>
       </c>
       <c r="B321" s="8">
-        <v>89.51499938964844</v>
+        <v>31.1200008392334</v>
       </c>
       <c r="C321" s="9">
-        <v>833</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5456,10 +5453,10 @@
         <v>323</v>
       </c>
       <c r="B322" s="5">
-        <v>31.20999908447266</v>
+        <v>115.3300018310547</v>
       </c>
       <c r="C322" s="6">
-        <v>2390</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5467,10 +5464,10 @@
         <v>324</v>
       </c>
       <c r="B323" s="8">
-        <v>115.2149963378906</v>
+        <v>558.469970703125</v>
       </c>
       <c r="C323" s="9">
-        <v>647</v>
+        <v>121</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5478,10 +5475,10 @@
         <v>325</v>
       </c>
       <c r="B324" s="5">
-        <v>556.8800048828125</v>
+        <v>378.7999877929688</v>
       </c>
       <c r="C324" s="6">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5489,10 +5486,10 @@
         <v>326</v>
       </c>
       <c r="B325" s="8">
-        <v>378.0650024414062</v>
+        <v>432.989990234375</v>
       </c>
       <c r="C325" s="9">
-        <v>197</v>
+        <v>156</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5500,10 +5497,10 @@
         <v>327</v>
       </c>
       <c r="B326" s="5">
-        <v>434.0499877929688</v>
+        <v>175.2799987792969</v>
       </c>
       <c r="C326" s="6">
-        <v>171</v>
+        <v>386</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5511,10 +5508,10 @@
         <v>328</v>
       </c>
       <c r="B327" s="8">
-        <v>175.4049987792969</v>
+        <v>30.6299991607666</v>
       </c>
       <c r="C327" s="9">
-        <v>425</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5522,10 +5519,10 @@
         <v>329</v>
       </c>
       <c r="B328" s="5">
-        <v>30.47439956665039</v>
+        <v>1177.089965820312</v>
       </c>
       <c r="C328" s="6">
-        <v>2448</v>
+        <v>57</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5533,10 +5530,10 @@
         <v>330</v>
       </c>
       <c r="B329" s="8">
-        <v>1165.27001953125</v>
+        <v>88.44000244140625</v>
       </c>
       <c r="C329" s="9">
-        <v>64</v>
+        <v>765</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5544,10 +5541,10 @@
         <v>331</v>
       </c>
       <c r="B330" s="5">
-        <v>88.44999694824219</v>
+        <v>19.14999961853027</v>
       </c>
       <c r="C330" s="6">
-        <v>843</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5555,10 +5552,10 @@
         <v>332</v>
       </c>
       <c r="B331" s="8">
-        <v>19.16500091552734</v>
+        <v>74.91000366210938</v>
       </c>
       <c r="C331" s="9">
-        <v>3893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5566,10 +5563,10 @@
         <v>333</v>
       </c>
       <c r="B332" s="5">
-        <v>74.91500091552734</v>
+        <v>200.4600067138672</v>
       </c>
       <c r="C332" s="6">
-        <v>996</v>
+        <v>337</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5577,10 +5574,10 @@
         <v>334</v>
       </c>
       <c r="B333" s="8">
-        <v>200.8130035400391</v>
+        <v>70.44999694824219</v>
       </c>
       <c r="C333" s="9">
-        <v>371</v>
+        <v>961</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5588,10 +5585,10 @@
         <v>335</v>
       </c>
       <c r="B334" s="5">
-        <v>70.73500061035156</v>
+        <v>48.08000183105469</v>
       </c>
       <c r="C334" s="6">
-        <v>1054</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5599,10 +5596,10 @@
         <v>336</v>
       </c>
       <c r="B335" s="8">
-        <v>48.27500152587891</v>
+        <v>933.8499755859375</v>
       </c>
       <c r="C335" s="9">
-        <v>1545</v>
+        <v>72</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5610,10 +5607,10 @@
         <v>337</v>
       </c>
       <c r="B336" s="5">
-        <v>933.5078125</v>
+        <v>39.91999816894531</v>
       </c>
       <c r="C336" s="6">
-        <v>79</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5621,10 +5618,10 @@
         <v>338</v>
       </c>
       <c r="B337" s="8">
-        <v>39.875</v>
+        <v>63.29000091552734</v>
       </c>
       <c r="C337" s="9">
-        <v>1871</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5632,10 +5629,10 @@
         <v>339</v>
       </c>
       <c r="B338" s="5">
-        <v>63.27000045776367</v>
+        <v>512.1900024414062</v>
       </c>
       <c r="C338" s="6">
-        <v>1179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5643,10 +5640,10 @@
         <v>340</v>
       </c>
       <c r="B339" s="8">
-        <v>513.4199829101562</v>
+        <v>797.760009765625</v>
       </c>
       <c r="C339" s="9">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5654,10 +5651,10 @@
         <v>341</v>
       </c>
       <c r="B340" s="5">
-        <v>794.6300048828125</v>
+        <v>95.19999694824219</v>
       </c>
       <c r="C340" s="6">
-        <v>93</v>
+        <v>711</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5665,10 +5662,10 @@
         <v>342</v>
       </c>
       <c r="B341" s="8">
-        <v>95.25</v>
+        <v>230.5500030517578</v>
       </c>
       <c r="C341" s="9">
-        <v>783</v>
+        <v>293</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5676,10 +5673,10 @@
         <v>343</v>
       </c>
       <c r="B342" s="5">
-        <v>230.7700042724609</v>
+        <v>88.40000152587891</v>
       </c>
       <c r="C342" s="6">
-        <v>323</v>
+        <v>766</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5687,10 +5684,10 @@
         <v>344</v>
       </c>
       <c r="B343" s="8">
-        <v>88.66000366210938</v>
+        <v>97.15000152587891</v>
       </c>
       <c r="C343" s="9">
-        <v>841</v>
+        <v>697</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5698,10 +5695,10 @@
         <v>345</v>
       </c>
       <c r="B344" s="5">
-        <v>97.73000335693359</v>
+        <v>121.9499969482422</v>
       </c>
       <c r="C344" s="6">
-        <v>763</v>
+        <v>555</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5709,10 +5706,10 @@
         <v>346</v>
       </c>
       <c r="B345" s="8">
-        <v>122.9499969482422</v>
+        <v>109.6699981689453</v>
       </c>
       <c r="C345" s="9">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5720,10 +5717,10 @@
         <v>347</v>
       </c>
       <c r="B346" s="5">
-        <v>110.4984970092773</v>
+        <v>7181.68017578125</v>
       </c>
       <c r="C346" s="6">
-        <v>675</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5731,10 +5728,10 @@
         <v>348</v>
       </c>
       <c r="B347" s="8">
-        <v>7155.08984375</v>
+        <v>29.65999984741211</v>
       </c>
       <c r="C347" s="9">
-        <v>10</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5742,10 +5739,10 @@
         <v>349</v>
       </c>
       <c r="B348" s="5">
-        <v>29.63999938964844</v>
+        <v>26.59000015258789</v>
       </c>
       <c r="C348" s="6">
-        <v>2517</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5753,10 +5750,10 @@
         <v>350</v>
       </c>
       <c r="B349" s="8">
-        <v>26.59499931335449</v>
+        <v>189.9900054931641</v>
       </c>
       <c r="C349" s="9">
-        <v>2805</v>
+        <v>356</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5764,10 +5761,10 @@
         <v>351</v>
       </c>
       <c r="B350" s="5">
-        <v>191.3150024414062</v>
+        <v>56.61000061035156</v>
       </c>
       <c r="C350" s="6">
-        <v>390</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5775,10 +5772,10 @@
         <v>352</v>
       </c>
       <c r="B351" s="8">
-        <v>56.40000152587891</v>
+        <v>164.8500061035156</v>
       </c>
       <c r="C351" s="9">
-        <v>1323</v>
+        <v>410</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5786,10 +5783,10 @@
         <v>353</v>
       </c>
       <c r="B352" s="5">
-        <v>166.3999938964844</v>
+        <v>98.48000335693359</v>
       </c>
       <c r="C352" s="6">
-        <v>448</v>
+        <v>687</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5797,10 +5794,10 @@
         <v>354</v>
       </c>
       <c r="B353" s="8">
-        <v>98.06999969482422</v>
+        <v>80.23999786376953</v>
       </c>
       <c r="C353" s="9">
-        <v>760</v>
+        <v>844</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5808,10 +5805,10 @@
         <v>355</v>
       </c>
       <c r="B354" s="5">
-        <v>80.13999938964844</v>
+        <v>40.93999862670898</v>
       </c>
       <c r="C354" s="6">
-        <v>931</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5819,10 +5816,10 @@
         <v>356</v>
       </c>
       <c r="B355" s="8">
-        <v>41.46500015258789</v>
+        <v>140.8699951171875</v>
       </c>
       <c r="C355" s="9">
-        <v>1799</v>
+        <v>480</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5830,10 +5827,10 @@
         <v>357</v>
       </c>
       <c r="B356" s="5">
-        <v>140.3000030517578</v>
+        <v>1408.550048828125</v>
       </c>
       <c r="C356" s="6">
-        <v>531</v>
+        <v>48</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5841,10 +5838,10 @@
         <v>358</v>
       </c>
       <c r="B357" s="8">
-        <v>1420.9599609375</v>
+        <v>102.1100006103516</v>
       </c>
       <c r="C357" s="9">
-        <v>52</v>
+        <v>663</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5852,10 +5849,10 @@
         <v>359</v>
       </c>
       <c r="B358" s="5">
-        <v>102.4499969482422</v>
+        <v>48.83000183105469</v>
       </c>
       <c r="C358" s="6">
-        <v>728</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5863,10 +5860,10 @@
         <v>360</v>
       </c>
       <c r="B359" s="8">
-        <v>48.72000122070312</v>
+        <v>172.7599945068359</v>
       </c>
       <c r="C359" s="9">
-        <v>1531</v>
+        <v>392</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5874,10 +5871,10 @@
         <v>361</v>
       </c>
       <c r="B360" s="5">
-        <v>172.7299957275391</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="C360" s="6">
-        <v>432</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5885,10 +5882,10 @@
         <v>362</v>
       </c>
       <c r="B361" s="8">
-        <v>11.54500007629395</v>
+        <v>218.75</v>
       </c>
       <c r="C361" s="9">
-        <v>6463</v>
+        <v>309</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5896,10 +5893,10 @@
         <v>363</v>
       </c>
       <c r="B362" s="5">
-        <v>219.4400024414062</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="C362" s="6">
-        <v>340</v>
+        <v>448</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5907,10 +5904,10 @@
         <v>364</v>
       </c>
       <c r="B363" s="8">
-        <v>150.5449981689453</v>
+        <v>96.91000366210938</v>
       </c>
       <c r="C363" s="9">
-        <v>495</v>
+        <v>698</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5918,10 +5915,10 @@
         <v>365</v>
       </c>
       <c r="B364" s="5">
-        <v>97.19499969482422</v>
+        <v>17</v>
       </c>
       <c r="C364" s="6">
-        <v>767</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5929,10 +5926,10 @@
         <v>366</v>
       </c>
       <c r="B365" s="8">
-        <v>17.06550025939941</v>
+        <v>81.62999725341797</v>
       </c>
       <c r="C365" s="9">
-        <v>4372</v>
+        <v>829</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5940,10 +5937,10 @@
         <v>367</v>
       </c>
       <c r="B366" s="5">
-        <v>82.10500335693359</v>
+        <v>149.2700042724609</v>
       </c>
       <c r="C366" s="6">
-        <v>908</v>
+        <v>453</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5951,10 +5948,10 @@
         <v>368</v>
       </c>
       <c r="B367" s="8">
-        <v>149.1999969482422</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="C367" s="9">
-        <v>500</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5962,10 +5959,10 @@
         <v>369</v>
       </c>
       <c r="B368" s="5">
-        <v>25.08550071716309</v>
+        <v>83.05999755859375</v>
       </c>
       <c r="C368" s="6">
-        <v>2974</v>
+        <v>815</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5973,10 +5970,10 @@
         <v>370</v>
       </c>
       <c r="B369" s="8">
-        <v>82.93499755859375</v>
+        <v>168.0299987792969</v>
       </c>
       <c r="C369" s="9">
-        <v>899</v>
+        <v>403</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5984,10 +5981,10 @@
         <v>371</v>
       </c>
       <c r="B370" s="5">
-        <v>168.4181060791016</v>
+        <v>278.8599853515625</v>
       </c>
       <c r="C370" s="6">
-        <v>443</v>
+        <v>242</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5995,10 +5992,10 @@
         <v>372</v>
       </c>
       <c r="B371" s="8">
-        <v>278.5849914550781</v>
+        <v>601.4299926757812</v>
       </c>
       <c r="C371" s="9">
-        <v>267</v>
+        <v>112</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6006,10 +6003,10 @@
         <v>373</v>
       </c>
       <c r="B372" s="5">
-        <v>601.155029296875</v>
+        <v>101.7399978637695</v>
       </c>
       <c r="C372" s="6">
-        <v>124</v>
+        <v>665</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6017,10 +6014,10 @@
         <v>374</v>
       </c>
       <c r="B373" s="8">
-        <v>102.0800018310547</v>
+        <v>195.5</v>
       </c>
       <c r="C373" s="9">
-        <v>731</v>
+        <v>346</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6028,10 +6025,10 @@
         <v>375</v>
       </c>
       <c r="B374" s="5">
-        <v>195.2850036621094</v>
+        <v>110.4499969482422</v>
       </c>
       <c r="C374" s="6">
-        <v>382</v>
+        <v>613</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6039,10 +6036,10 @@
         <v>376</v>
       </c>
       <c r="B375" s="8">
-        <v>110.4899978637695</v>
+        <v>85.84999847412109</v>
       </c>
       <c r="C375" s="9">
-        <v>675</v>
+        <v>788</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6050,10 +6047,10 @@
         <v>377</v>
       </c>
       <c r="B376" s="5">
-        <v>85.16999816894531</v>
+        <v>155.1600036621094</v>
       </c>
       <c r="C376" s="6">
-        <v>876</v>
+        <v>436</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6061,10 +6058,10 @@
         <v>378</v>
       </c>
       <c r="B377" s="8">
-        <v>154.6300048828125</v>
+        <v>171.8800048828125</v>
       </c>
       <c r="C377" s="9">
-        <v>482</v>
+        <v>394</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6072,10 +6069,10 @@
         <v>379</v>
       </c>
       <c r="B378" s="5">
-        <v>171.6999969482422</v>
+        <v>86.83999633789062</v>
       </c>
       <c r="C378" s="6">
-        <v>434</v>
+        <v>779</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6083,10 +6080,10 @@
         <v>380</v>
       </c>
       <c r="B379" s="8">
-        <v>87.06999969482422</v>
+        <v>94.16999816894531</v>
       </c>
       <c r="C379" s="9">
-        <v>857</v>
+        <v>719</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6094,10 +6091,10 @@
         <v>381</v>
       </c>
       <c r="B380" s="5">
-        <v>94.73999786376953</v>
+        <v>258.75</v>
       </c>
       <c r="C380" s="6">
-        <v>787</v>
+        <v>261</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6105,10 +6102,10 @@
         <v>382</v>
       </c>
       <c r="B381" s="8">
-        <v>257.3500061035156</v>
+        <v>314.9200134277344</v>
       </c>
       <c r="C381" s="9">
-        <v>289</v>
+        <v>215</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6116,10 +6113,10 @@
         <v>383</v>
       </c>
       <c r="B382" s="5">
-        <v>317.2049865722656</v>
+        <v>107.4400024414062</v>
       </c>
       <c r="C382" s="6">
-        <v>235</v>
+        <v>630</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6127,10 +6124,10 @@
         <v>384</v>
       </c>
       <c r="B383" s="8">
-        <v>107.620002746582</v>
+        <v>35.70999908447266</v>
       </c>
       <c r="C383" s="9">
-        <v>693</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6138,10 +6135,10 @@
         <v>385</v>
       </c>
       <c r="B384" s="5">
-        <v>35.82500076293945</v>
+        <v>110.0699996948242</v>
       </c>
       <c r="C384" s="6">
-        <v>2082</v>
+        <v>615</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6149,10 +6146,10 @@
         <v>386</v>
       </c>
       <c r="B385" s="8">
-        <v>109.5849990844727</v>
+        <v>294.3699951171875</v>
       </c>
       <c r="C385" s="9">
-        <v>680</v>
+        <v>230</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6160,10 +6157,10 @@
         <v>387</v>
       </c>
       <c r="B386" s="5">
-        <v>293.2699890136719</v>
+        <v>121.7600021362305</v>
       </c>
       <c r="C386" s="6">
-        <v>254</v>
+        <v>556</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6171,10 +6168,10 @@
         <v>388</v>
       </c>
       <c r="B387" s="8">
-        <v>121.7399978637695</v>
+        <v>154.8000030517578</v>
       </c>
       <c r="C387" s="9">
-        <v>612</v>
+        <v>437</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6182,10 +6179,10 @@
         <v>389</v>
       </c>
       <c r="B388" s="5">
-        <v>155.1399993896484</v>
+        <v>254.2899932861328</v>
       </c>
       <c r="C388" s="6">
-        <v>480</v>
+        <v>266</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6193,10 +6190,10 @@
         <v>390</v>
       </c>
       <c r="B389" s="8">
-        <v>253.1799926757812</v>
+        <v>65.15000152587891</v>
       </c>
       <c r="C389" s="9">
-        <v>294</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6204,10 +6201,10 @@
         <v>391</v>
       </c>
       <c r="B390" s="5">
-        <v>65.26999664306641</v>
+        <v>152.7200012207031</v>
       </c>
       <c r="C390" s="6">
-        <v>1143</v>
+        <v>443</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6215,10 +6212,10 @@
         <v>392</v>
       </c>
       <c r="B391" s="8">
-        <v>153.3399963378906</v>
+        <v>207.5800018310547</v>
       </c>
       <c r="C391" s="9">
-        <v>486</v>
+        <v>326</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6226,10 +6223,10 @@
         <v>393</v>
       </c>
       <c r="B392" s="5">
-        <v>208.2100067138672</v>
+        <v>72.87000274658203</v>
       </c>
       <c r="C392" s="6">
-        <v>358</v>
+        <v>929</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6237,10 +6234,10 @@
         <v>394</v>
       </c>
       <c r="B393" s="8">
-        <v>72.36000061035156</v>
+        <v>637.3599853515625</v>
       </c>
       <c r="C393" s="9">
-        <v>1031</v>
+        <v>106</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6248,10 +6245,10 @@
         <v>395</v>
       </c>
       <c r="B394" s="5">
-        <v>640.0800170898438</v>
+        <v>21.42000007629395</v>
       </c>
       <c r="C394" s="6">
-        <v>116</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6259,10 +6256,10 @@
         <v>396</v>
       </c>
       <c r="B395" s="8">
-        <v>21.43499946594238</v>
+        <v>139.0099945068359</v>
       </c>
       <c r="C395" s="9">
-        <v>3481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6270,10 +6267,10 @@
         <v>397</v>
       </c>
       <c r="B396" s="5">
-        <v>138.8699951171875</v>
+        <v>215.6799926757812</v>
       </c>
       <c r="C396" s="6">
-        <v>537</v>
+        <v>314</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6281,10 +6278,10 @@
         <v>398</v>
       </c>
       <c r="B397" s="8">
-        <v>214.3600006103516</v>
+        <v>219.9400024414062</v>
       </c>
       <c r="C397" s="9">
-        <v>348</v>
+        <v>307</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6292,10 +6289,10 @@
         <v>399</v>
       </c>
       <c r="B398" s="5">
-        <v>220.9499969482422</v>
+        <v>258.6300048828125</v>
       </c>
       <c r="C398" s="6">
-        <v>337</v>
+        <v>261</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6303,10 +6300,10 @@
         <v>400</v>
       </c>
       <c r="B399" s="8">
-        <v>259.3299865722656</v>
+        <v>53.06000137329102</v>
       </c>
       <c r="C399" s="9">
-        <v>287</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6314,10 +6311,10 @@
         <v>401</v>
       </c>
       <c r="B400" s="5">
-        <v>53.02999877929688</v>
+        <v>582.6400146484375</v>
       </c>
       <c r="C400" s="6">
-        <v>1407</v>
+        <v>116</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6325,10 +6322,10 @@
         <v>402</v>
       </c>
       <c r="B401" s="8">
-        <v>582.989990234375</v>
+        <v>125.4199981689453</v>
       </c>
       <c r="C401" s="9">
-        <v>127</v>
+        <v>540</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6336,10 +6333,10 @@
         <v>403</v>
       </c>
       <c r="B402" s="5">
-        <v>125.5500030517578</v>
+        <v>238.5399932861328</v>
       </c>
       <c r="C402" s="6">
-        <v>594</v>
+        <v>283</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6347,10 +6344,10 @@
         <v>404</v>
       </c>
       <c r="B403" s="8">
-        <v>239.2599945068359</v>
+        <v>131.7200012207031</v>
       </c>
       <c r="C403" s="9">
-        <v>311</v>
+        <v>514</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6358,10 +6355,10 @@
         <v>405</v>
       </c>
       <c r="B404" s="5">
-        <v>132.2899932861328</v>
+        <v>105.620002746582</v>
       </c>
       <c r="C404" s="6">
-        <v>564</v>
+        <v>641</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6369,10 +6366,10 @@
         <v>406</v>
       </c>
       <c r="B405" s="8">
-        <v>105.9449996948242</v>
+        <v>216.8399963378906</v>
       </c>
       <c r="C405" s="9">
-        <v>704</v>
+        <v>312</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6380,10 +6377,10 @@
         <v>407</v>
       </c>
       <c r="B406" s="5">
-        <v>217.1300048828125</v>
+        <v>97.73000335693359</v>
       </c>
       <c r="C406" s="6">
-        <v>343</v>
+        <v>693</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6391,10 +6388,10 @@
         <v>408</v>
       </c>
       <c r="B407" s="8">
-        <v>97.59500122070312</v>
+        <v>77.80999755859375</v>
       </c>
       <c r="C407" s="9">
-        <v>764</v>
+        <v>870</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6402,10 +6399,10 @@
         <v>409</v>
       </c>
       <c r="B408" s="5">
-        <v>77.62819671630859</v>
+        <v>339.75</v>
       </c>
       <c r="C408" s="6">
-        <v>961</v>
+        <v>199</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6413,10 +6410,10 @@
         <v>410</v>
       </c>
       <c r="B409" s="8">
-        <v>340.1499938964844</v>
+        <v>116.3199996948242</v>
       </c>
       <c r="C409" s="9">
-        <v>219</v>
+        <v>582</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6424,10 +6421,10 @@
         <v>411</v>
       </c>
       <c r="B410" s="5">
-        <v>116.6800003051758</v>
+        <v>41.88000106811523</v>
       </c>
       <c r="C410" s="6">
-        <v>639</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6435,10 +6432,10 @@
         <v>412</v>
       </c>
       <c r="B411" s="8">
-        <v>41.8650016784668</v>
+        <v>34.2599983215332</v>
       </c>
       <c r="C411" s="9">
-        <v>1782</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6446,10 +6443,10 @@
         <v>413</v>
       </c>
       <c r="B412" s="5">
-        <v>34.61999893188477</v>
+        <v>329.3099975585938</v>
       </c>
       <c r="C412" s="6">
-        <v>2155</v>
+        <v>205</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6457,10 +6454,10 @@
         <v>414</v>
       </c>
       <c r="B413" s="8">
-        <v>329.1700134277344</v>
+        <v>437.9500122070312</v>
       </c>
       <c r="C413" s="9">
-        <v>226</v>
+        <v>154</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6468,10 +6465,10 @@
         <v>415</v>
       </c>
       <c r="B414" s="5">
-        <v>439.7699890136719</v>
+        <v>91.12999725341797</v>
       </c>
       <c r="C414" s="6">
-        <v>169</v>
+        <v>743</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6479,10 +6476,10 @@
         <v>416</v>
       </c>
       <c r="B415" s="8">
-        <v>91.11000061035156</v>
+        <v>74.75</v>
       </c>
       <c r="C415" s="9">
-        <v>819</v>
+        <v>906</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6490,10 +6487,10 @@
         <v>417</v>
       </c>
       <c r="B416" s="5">
-        <v>74.96499633789062</v>
+        <v>164.2799987792969</v>
       </c>
       <c r="C416" s="6">
-        <v>995</v>
+        <v>412</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6501,10 +6498,10 @@
         <v>418</v>
       </c>
       <c r="B417" s="8">
-        <v>163.7850036621094</v>
+        <v>502.510009765625</v>
       </c>
       <c r="C417" s="9">
-        <v>455</v>
+        <v>134</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6512,10 +6509,10 @@
         <v>419</v>
       </c>
       <c r="B418" s="5">
-        <v>504.0320129394531</v>
+        <v>69.73000335693359</v>
       </c>
       <c r="C418" s="6">
-        <v>148</v>
+        <v>971</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6523,10 +6520,10 @@
         <v>420</v>
       </c>
       <c r="B419" s="8">
-        <v>69.86499786376953</v>
+        <v>223</v>
       </c>
       <c r="C419" s="9">
-        <v>1068</v>
+        <v>303</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6534,10 +6531,10 @@
         <v>421</v>
       </c>
       <c r="B420" s="5">
-        <v>223.1300048828125</v>
+        <v>123.9700012207031</v>
       </c>
       <c r="C420" s="6">
-        <v>334</v>
+        <v>546</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6545,10 +6542,10 @@
         <v>422</v>
       </c>
       <c r="B421" s="8">
-        <v>123.870002746582</v>
+        <v>89.04000091552734</v>
       </c>
       <c r="C421" s="9">
-        <v>602</v>
+        <v>760</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6556,10 +6553,10 @@
         <v>423</v>
       </c>
       <c r="B422" s="5">
-        <v>88.79000091552734</v>
+        <v>84.91999816894531</v>
       </c>
       <c r="C422" s="6">
-        <v>840</v>
+        <v>797</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6567,10 +6564,10 @@
         <v>424</v>
       </c>
       <c r="B423" s="8">
-        <v>84.87000274658203</v>
+        <v>183.7400054931641</v>
       </c>
       <c r="C423" s="9">
-        <v>879</v>
+        <v>368</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6578,10 +6575,10 @@
         <v>425</v>
       </c>
       <c r="B424" s="5">
-        <v>183.4850006103516</v>
+        <v>44.5099983215332</v>
       </c>
       <c r="C424" s="6">
-        <v>406</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6589,10 +6586,10 @@
         <v>426</v>
       </c>
       <c r="B425" s="8">
-        <v>44.27999877929688</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="C425" s="9">
-        <v>1685</v>
+        <v>886</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6600,10 +6597,10 @@
         <v>427</v>
       </c>
       <c r="B426" s="5">
-        <v>76.58499908447266</v>
+        <v>64.12000274658203</v>
       </c>
       <c r="C426" s="6">
-        <v>974</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6611,10 +6608,10 @@
         <v>428</v>
       </c>
       <c r="B427" s="8">
-        <v>64.62999725341797</v>
+        <v>52.43000030517578</v>
       </c>
       <c r="C427" s="9">
-        <v>1154</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6622,10 +6619,10 @@
         <v>429</v>
       </c>
       <c r="B428" s="5">
-        <v>52.40000152587891</v>
+        <v>364.5</v>
       </c>
       <c r="C428" s="6">
-        <v>1424</v>
+        <v>185</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6633,10 +6630,10 @@
         <v>430</v>
       </c>
       <c r="B429" s="8">
-        <v>364.6499938964844</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="C429" s="9">
-        <v>204</v>
+        <v>914</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6644,10 +6641,10 @@
         <v>431</v>
       </c>
       <c r="B430" s="5">
-        <v>73.86000061035156</v>
+        <v>28.18000030517578</v>
       </c>
       <c r="C430" s="6">
-        <v>1010</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6655,10 +6652,10 @@
         <v>432</v>
       </c>
       <c r="B431" s="8">
-        <v>28.24990081787109</v>
+        <v>60.52999877929688</v>
       </c>
       <c r="C431" s="9">
-        <v>2641</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6666,10 +6663,10 @@
         <v>433</v>
       </c>
       <c r="B432" s="5">
-        <v>60.41500091552734</v>
+        <v>1377.199951171875</v>
       </c>
       <c r="C432" s="6">
-        <v>1235</v>
+        <v>49</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6677,10 +6674,10 @@
         <v>434</v>
       </c>
       <c r="B433" s="8">
-        <v>1384.150024414062</v>
+        <v>495.5199890136719</v>
       </c>
       <c r="C433" s="9">
-        <v>53</v>
+        <v>136</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6688,10 +6685,10 @@
         <v>435</v>
       </c>
       <c r="B434" s="5">
-        <v>496.0400085449219</v>
+        <v>58.72999954223633</v>
       </c>
       <c r="C434" s="6">
-        <v>150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6699,10 +6696,10 @@
         <v>436</v>
       </c>
       <c r="B435" s="8">
-        <v>58.97499847412109</v>
+        <v>142.1300048828125</v>
       </c>
       <c r="C435" s="9">
-        <v>1265</v>
+        <v>476</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6710,10 +6707,10 @@
         <v>437</v>
       </c>
       <c r="B436" s="5">
-        <v>142.5149993896484</v>
+        <v>82.77999877929688</v>
       </c>
       <c r="C436" s="6">
-        <v>523</v>
+        <v>818</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6721,10 +6718,10 @@
         <v>438</v>
       </c>
       <c r="B437" s="8">
-        <v>83.56999969482422</v>
+        <v>40.45999908447266</v>
       </c>
       <c r="C437" s="9">
-        <v>892</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6732,10 +6729,10 @@
         <v>439</v>
       </c>
       <c r="B438" s="5">
-        <v>40.38999938964844</v>
+        <v>103.6500015258789</v>
       </c>
       <c r="C438" s="6">
-        <v>1847</v>
+        <v>653</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6743,10 +6740,10 @@
         <v>440</v>
       </c>
       <c r="B439" s="8">
-        <v>103.8899993896484</v>
+        <v>118.2099990844727</v>
       </c>
       <c r="C439" s="9">
-        <v>718</v>
+        <v>572</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6754,10 +6751,10 @@
         <v>441</v>
       </c>
       <c r="B440" s="5">
-        <v>117.5500030517578</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="C440" s="6">
-        <v>634</v>
+        <v>452</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6765,10 +6762,10 @@
         <v>442</v>
       </c>
       <c r="B441" s="8">
-        <v>148.7350006103516</v>
+        <v>500.1600036621094</v>
       </c>
       <c r="C441" s="9">
-        <v>501</v>
+        <v>135</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6776,10 +6773,10 @@
         <v>443</v>
       </c>
       <c r="B442" s="5">
-        <v>501.6849975585938</v>
+        <v>264.9299926757812</v>
       </c>
       <c r="C442" s="6">
-        <v>148</v>
+        <v>255</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6787,10 +6784,10 @@
         <v>444</v>
       </c>
       <c r="B443" s="8">
-        <v>266.2200012207031</v>
+        <v>1305.7099609375</v>
       </c>
       <c r="C443" s="9">
-        <v>280</v>
+        <v>51</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6798,10 +6795,10 @@
         <v>445</v>
       </c>
       <c r="B444" s="5">
-        <v>1309.2099609375</v>
+        <v>70.25</v>
       </c>
       <c r="C444" s="6">
-        <v>56</v>
+        <v>964</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6809,10 +6806,10 @@
         <v>446</v>
       </c>
       <c r="B445" s="8">
-        <v>70.06749725341797</v>
+        <v>197.8200073242188</v>
       </c>
       <c r="C445" s="9">
-        <v>1064</v>
+        <v>342</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6820,10 +6817,10 @@
         <v>447</v>
       </c>
       <c r="B446" s="5">
-        <v>197.0950012207031</v>
+        <v>65.51999664306641</v>
       </c>
       <c r="C446" s="6">
-        <v>378</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6831,10 +6828,10 @@
         <v>448</v>
       </c>
       <c r="B447" s="8">
-        <v>65.80999755859375</v>
+        <v>91.56999969482422</v>
       </c>
       <c r="C447" s="9">
-        <v>1133</v>
+        <v>739</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6842,10 +6839,10 @@
         <v>449</v>
       </c>
       <c r="B448" s="5">
-        <v>91.52999877929688</v>
+        <v>261.7900085449219</v>
       </c>
       <c r="C448" s="6">
-        <v>815</v>
+        <v>258</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6853,10 +6850,10 @@
         <v>450</v>
       </c>
       <c r="B449" s="8">
-        <v>261.9299926757812</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="C449" s="9">
-        <v>284</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6864,10 +6861,10 @@
         <v>451</v>
       </c>
       <c r="B450" s="5">
-        <v>53.52000045776367</v>
+        <v>263.5499877929688</v>
       </c>
       <c r="C450" s="6">
-        <v>1394</v>
+        <v>256</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6875,10 +6872,10 @@
         <v>452</v>
       </c>
       <c r="B451" s="8">
-        <v>263.7300109863281</v>
+        <v>62.36999893188477</v>
       </c>
       <c r="C451" s="9">
-        <v>282</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6886,10 +6883,10 @@
         <v>453</v>
       </c>
       <c r="B452" s="5">
-        <v>62.36999893188477</v>
+        <v>332</v>
       </c>
       <c r="C452" s="6">
-        <v>1196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6897,10 +6894,10 @@
         <v>454</v>
       </c>
       <c r="B453" s="8">
-        <v>334.6950073242188</v>
+        <v>210.4700012207031</v>
       </c>
       <c r="C453" s="9">
-        <v>222</v>
+        <v>321</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6908,10 +6905,10 @@
         <v>455</v>
       </c>
       <c r="B454" s="5">
-        <v>210.0399932861328</v>
+        <v>176.3300018310547</v>
       </c>
       <c r="C454" s="6">
-        <v>355</v>
+        <v>384</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6919,10 +6916,10 @@
         <v>456</v>
       </c>
       <c r="B455" s="8">
-        <v>176.8699951171875</v>
+        <v>73</v>
       </c>
       <c r="C455" s="9">
-        <v>421</v>
+        <v>927</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6930,10 +6927,10 @@
         <v>457</v>
       </c>
       <c r="B456" s="5">
-        <v>73.22000122070312</v>
+        <v>579.6599731445312</v>
       </c>
       <c r="C456" s="6">
-        <v>1019</v>
+        <v>116</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6941,10 +6938,10 @@
         <v>458</v>
       </c>
       <c r="B457" s="8">
-        <v>580.094970703125</v>
+        <v>70.23000335693359</v>
       </c>
       <c r="C457" s="9">
-        <v>128</v>
+        <v>964</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6952,10 +6949,10 @@
         <v>459</v>
       </c>
       <c r="B458" s="5">
-        <v>70.20999908447266</v>
+        <v>72.75</v>
       </c>
       <c r="C458" s="6">
-        <v>1062</v>
+        <v>930</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6963,10 +6960,10 @@
         <v>460</v>
       </c>
       <c r="B459" s="8">
-        <v>72.62999725341797</v>
+        <v>44.54000091552734</v>
       </c>
       <c r="C459" s="9">
-        <v>1027</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6974,10 +6971,10 @@
         <v>461</v>
       </c>
       <c r="B460" s="5">
-        <v>44.39500045776367</v>
+        <v>186.1799926757812</v>
       </c>
       <c r="C460" s="6">
-        <v>1680</v>
+        <v>363</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6985,10 +6982,10 @@
         <v>462</v>
       </c>
       <c r="B461" s="8">
-        <v>186.7799987792969</v>
+        <v>359.4700012207031</v>
       </c>
       <c r="C461" s="9">
-        <v>399</v>
+        <v>188</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6996,10 +6993,10 @@
         <v>463</v>
       </c>
       <c r="B462" s="5">
-        <v>359.4849853515625</v>
+        <v>516.0399780273438</v>
       </c>
       <c r="C462" s="6">
-        <v>207</v>
+        <v>131</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7007,10 +7004,10 @@
         <v>464</v>
       </c>
       <c r="B463" s="8">
-        <v>518.3900146484375</v>
+        <v>232.1499938964844</v>
       </c>
       <c r="C463" s="9">
-        <v>143</v>
+        <v>291</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7018,10 +7015,10 @@
         <v>465</v>
       </c>
       <c r="B464" s="5">
-        <v>232.6499938964844</v>
+        <v>109.6600036621094</v>
       </c>
       <c r="C464" s="6">
-        <v>320</v>
+        <v>617</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7029,10 +7026,10 @@
         <v>466</v>
       </c>
       <c r="B465" s="8">
-        <v>109.870002746582</v>
+        <v>627.6500244140625</v>
       </c>
       <c r="C465" s="9">
-        <v>679</v>
+        <v>107</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7040,10 +7037,10 @@
         <v>467</v>
       </c>
       <c r="B466" s="5">
-        <v>627.530029296875</v>
+        <v>42.2599983215332</v>
       </c>
       <c r="C466" s="6">
-        <v>118</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7051,10 +7048,10 @@
         <v>468</v>
       </c>
       <c r="B467" s="8">
-        <v>42.34500122070312</v>
+        <v>342.8500061035156</v>
       </c>
       <c r="C467" s="9">
-        <v>1762</v>
+        <v>197</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7062,10 +7059,10 @@
         <v>469</v>
       </c>
       <c r="B468" s="5">
-        <v>343.3599853515625</v>
+        <v>32.0099983215332</v>
       </c>
       <c r="C468" s="6">
-        <v>217</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7073,10 +7070,10 @@
         <v>470</v>
       </c>
       <c r="B469" s="8">
-        <v>31.93000030517578</v>
+        <v>131.4799957275391</v>
       </c>
       <c r="C469" s="9">
-        <v>2337</v>
+        <v>515</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7084,10 +7081,10 @@
         <v>471</v>
       </c>
       <c r="B470" s="5">
-        <v>131.5200042724609</v>
+        <v>96.04000091552734</v>
       </c>
       <c r="C470" s="6">
-        <v>567</v>
+        <v>705</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7095,10 +7092,10 @@
         <v>472</v>
       </c>
       <c r="B471" s="8">
-        <v>96.25499725341797</v>
+        <v>232.9400024414062</v>
       </c>
       <c r="C471" s="9">
-        <v>775</v>
+        <v>290</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7106,10 +7103,10 @@
         <v>473</v>
       </c>
       <c r="B472" s="5">
-        <v>231.3099975585938</v>
+        <v>294.5799865722656</v>
       </c>
       <c r="C472" s="6">
-        <v>322</v>
+        <v>229</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7117,10 +7114,10 @@
         <v>474</v>
       </c>
       <c r="B473" s="8">
-        <v>294.3999938964844</v>
+        <v>250.9199981689453</v>
       </c>
       <c r="C473" s="9">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7128,10 +7125,10 @@
         <v>475</v>
       </c>
       <c r="B474" s="5">
-        <v>252.2550048828125</v>
+        <v>492.6900024414062</v>
       </c>
       <c r="C474" s="6">
-        <v>295</v>
+        <v>137</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7139,10 +7136,10 @@
         <v>476</v>
       </c>
       <c r="B475" s="8">
-        <v>495.4549865722656</v>
+        <v>119.0500030517578</v>
       </c>
       <c r="C475" s="9">
-        <v>150</v>
+        <v>568</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7150,10 +7147,10 @@
         <v>477</v>
       </c>
       <c r="B476" s="5">
-        <v>119.2099990844727</v>
+        <v>68.76000213623047</v>
       </c>
       <c r="C476" s="6">
-        <v>625</v>
+        <v>985</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7161,10 +7158,10 @@
         <v>478</v>
       </c>
       <c r="B477" s="8">
-        <v>68.43000030517578</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="C477" s="9">
-        <v>1090</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7172,10 +7169,10 @@
         <v>479</v>
       </c>
       <c r="B478" s="5">
-        <v>8.654999732971191</v>
+        <v>44.93000030517578</v>
       </c>
       <c r="C478" s="6">
-        <v>8621</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7183,10 +7180,10 @@
         <v>480</v>
       </c>
       <c r="B479" s="8">
-        <v>45.13970184326172</v>
+        <v>181.7899932861328</v>
       </c>
       <c r="C479" s="9">
-        <v>1653</v>
+        <v>372</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7194,10 +7191,10 @@
         <v>481</v>
       </c>
       <c r="B480" s="5">
-        <v>180.6499938964844</v>
+        <v>362.1600036621094</v>
       </c>
       <c r="C480" s="6">
-        <v>413</v>
+        <v>187</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7205,10 +7202,10 @@
         <v>482</v>
       </c>
       <c r="B481" s="8">
-        <v>362.9700012207031</v>
+        <v>11.1899995803833</v>
       </c>
       <c r="C481" s="9">
-        <v>205</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7216,10 +7213,10 @@
         <v>483</v>
       </c>
       <c r="B482" s="5">
-        <v>11.17000007629395</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="C482" s="6">
-        <v>6680</v>
+        <v>6531</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7227,10 +7224,10 @@
         <v>484</v>
       </c>
       <c r="B483" s="8">
-        <v>10.35000038146973</v>
+        <v>238.4900054931641</v>
       </c>
       <c r="C483" s="9">
-        <v>7209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7238,10 +7235,10 @@
         <v>485</v>
       </c>
       <c r="B484" s="5">
-        <v>238.1100006103516</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="C484" s="6">
-        <v>313</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7249,10 +7246,10 @@
         <v>486</v>
       </c>
       <c r="B485" s="8">
-        <v>40.72999954223633</v>
+        <v>107.5500030517578</v>
       </c>
       <c r="C485" s="9">
-        <v>1832</v>
+        <v>629</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7260,10 +7257,10 @@
         <v>487</v>
       </c>
       <c r="B486" s="5">
-        <v>107.8300018310547</v>
+        <v>153.4199981689453</v>
       </c>
       <c r="C486" s="6">
-        <v>692</v>
+        <v>441</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7271,10 +7268,10 @@
         <v>488</v>
       </c>
       <c r="B487" s="8">
-        <v>153.0700073242188</v>
+        <v>70.69000244140625</v>
       </c>
       <c r="C487" s="9">
-        <v>487</v>
+        <v>958</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7282,10 +7279,10 @@
         <v>489</v>
       </c>
       <c r="B488" s="5">
-        <v>70.61499786376953</v>
+        <v>227.9199981689453</v>
       </c>
       <c r="C488" s="6">
-        <v>1056</v>
+        <v>297</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7293,10 +7290,10 @@
         <v>490</v>
       </c>
       <c r="B489" s="8">
-        <v>228.4499969482422</v>
+        <v>59.18999862670898</v>
       </c>
       <c r="C489" s="9">
-        <v>326</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7304,10 +7301,10 @@
         <v>491</v>
       </c>
       <c r="B490" s="5">
-        <v>59.22999954223633</v>
+        <v>85.15000152587891</v>
       </c>
       <c r="C490" s="6">
-        <v>1259</v>
+        <v>795</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7315,10 +7312,10 @@
         <v>492</v>
       </c>
       <c r="B491" s="8">
-        <v>85.05500030517578</v>
+        <v>71.26999664306641</v>
       </c>
       <c r="C491" s="9">
-        <v>877</v>
+        <v>950</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7326,10 +7323,10 @@
         <v>493</v>
       </c>
       <c r="B492" s="5">
-        <v>71.19999694824219</v>
+        <v>158.9799957275391</v>
       </c>
       <c r="C492" s="6">
-        <v>1048</v>
+        <v>426</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7337,10 +7334,10 @@
         <v>494</v>
       </c>
       <c r="B493" s="8">
-        <v>159.4949951171875</v>
+        <v>222.1999969482422</v>
       </c>
       <c r="C493" s="9">
-        <v>467</v>
+        <v>304</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7348,10 +7345,10 @@
         <v>495</v>
       </c>
       <c r="B494" s="5">
-        <v>222.0950012207031</v>
+        <v>337.1600036621094</v>
       </c>
       <c r="C494" s="6">
-        <v>335</v>
+        <v>200</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7359,10 +7356,10 @@
         <v>496</v>
       </c>
       <c r="B495" s="8">
-        <v>337.864990234375</v>
+        <v>29.36000061035156</v>
       </c>
       <c r="C495" s="9">
-        <v>220</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7370,10 +7367,10 @@
         <v>497</v>
       </c>
       <c r="B496" s="5">
-        <v>29.34499931335449</v>
+        <v>82.33000183105469</v>
       </c>
       <c r="C496" s="6">
-        <v>2542</v>
+        <v>822</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7381,10 +7378,10 @@
         <v>498</v>
       </c>
       <c r="B497" s="8">
-        <v>82.26999664306641</v>
+        <v>69.72000122070312</v>
       </c>
       <c r="C497" s="9">
-        <v>907</v>
+        <v>971</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7392,10 +7389,10 @@
         <v>499</v>
       </c>
       <c r="B498" s="5">
-        <v>69.85500335693359</v>
+        <v>117.7300033569336</v>
       </c>
       <c r="C498" s="6">
-        <v>1068</v>
+        <v>575</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7403,10 +7400,10 @@
         <v>500</v>
       </c>
       <c r="B499" s="8">
-        <v>117.7200012207031</v>
+        <v>119.4400024414062</v>
       </c>
       <c r="C499" s="9">
-        <v>633</v>
+        <v>567</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7414,10 +7411,10 @@
         <v>501</v>
       </c>
       <c r="B500" s="5">
-        <v>120.2601013183594</v>
+        <v>155.7599945068359</v>
       </c>
       <c r="C500" s="6">
-        <v>620</v>
+        <v>434</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7425,10 +7422,10 @@
         <v>502</v>
       </c>
       <c r="B501" s="8">
-        <v>155.9550018310547</v>
+        <v>112.2600021362305</v>
       </c>
       <c r="C501" s="9">
-        <v>478</v>
+        <v>603</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7436,10 +7433,10 @@
         <v>503</v>
       </c>
       <c r="B502" s="5">
-        <v>112.5899963378906</v>
+        <v>280.7900085449219</v>
       </c>
       <c r="C502" s="6">
-        <v>662</v>
+        <v>241</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7447,21 +7444,10 @@
         <v>504</v>
       </c>
       <c r="B503" s="8">
-        <v>280.4700012207031</v>
+        <v>163.1100006103516</v>
       </c>
       <c r="C503" s="9">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
-      <c r="A504" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="B504" s="5">
-        <v>163.5549926757812</v>
-      </c>
-      <c r="C504" s="6">
-        <v>456</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
